--- a/feature_excels/DOE3_features.xlsx
+++ b/feature_excels/DOE3_features.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Trajectory_length</t>
+          <t>trajectory_length</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peak_count</t>
+          <t>maxima_count</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>valley_count</t>
+          <t>minima_count</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">

--- a/feature_excels/DOE3_features.xlsx
+++ b/feature_excels/DOE3_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,85 +441,100 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>signal_energy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>global_maxima</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>global_minima</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mean_y</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>median_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>sd</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>trajectory_length</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>maxima_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>minima_count</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>slope_max</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>slope_min</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>slope_phase1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>slope_phase2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>slope_phase3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>slope_phase4</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>mpv_injection_speed</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>mpv_holding_pressure</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>mpv_mold_temp</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>cu_id</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>kategorie</t>
         </is>
@@ -530,54 +545,63 @@
         <v>748.1808964201873</v>
       </c>
       <c r="B2" t="n">
+        <v>23234310.53099019</v>
+      </c>
+      <c r="C2" t="n">
         <v>574.0159301757812</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-2.445257186889648</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>124.8118024825306</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43.69551277160645</v>
+      </c>
+      <c r="G2" t="n">
         <v>150.8723313992253</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>1133.965868690698</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>21</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>21</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>83283.95802472298</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>-504.4970766717306</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>2768.552341285737</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>-158.0015155459995</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>-19.30266362825576</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>-4.696008689027487</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>200</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>100</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>300</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -586,54 +610,63 @@
         <v>747.7972398142747</v>
       </c>
       <c r="B3" t="n">
+        <v>23116009.60037565</v>
+      </c>
+      <c r="C3" t="n">
         <v>553.8279418945312</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-2.438138961791992</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>125.5151889335976</v>
+      </c>
+      <c r="F3" t="n">
+        <v>44.8209056854248</v>
+      </c>
+      <c r="G3" t="n">
         <v>149.6367859539208</v>
       </c>
-      <c r="E3" t="n">
+      <c r="H3" t="n">
         <v>1093.863390664563</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>32</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>31</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>77442.9959020503</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>-438.0586499846977</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>2653.770354098234</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>-161.9303197667899</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>-20.78781845279901</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>-5.474957176605135</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>200</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>100</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>300</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
+      <c r="U3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -642,54 +675,63 @@
         <v>759.9991267562448</v>
       </c>
       <c r="B4" t="n">
+        <v>23666619.01064482</v>
+      </c>
+      <c r="C4" t="n">
         <v>540.717529296875</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-2.186865091323853</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>127.6609851032115</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45.62918090820312</v>
+      </c>
+      <c r="G4" t="n">
         <v>150.6391733386968</v>
       </c>
-      <c r="E4" t="n">
+      <c r="H4" t="n">
         <v>1066.139319627629</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>34</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>34</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>73279.40192062124</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>-403.5725888329216</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>2541.381649392236</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>-156.6862667383284</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>-18.5874934769579</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>-4.55163514981171</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>200</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>100</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
         <v>300</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="T4" t="n">
         <v>3</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,54 +740,63 @@
         <v>754.4658533944347</v>
       </c>
       <c r="B5" t="n">
+        <v>23825982.6489468</v>
+      </c>
+      <c r="C5" t="n">
         <v>580.6658325195312</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-2.526405096054077</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>126.4775461157127</v>
+      </c>
+      <c r="F5" t="n">
+        <v>44.23685455322266</v>
+      </c>
+      <c r="G5" t="n">
         <v>152.4974132622882</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>1147.863372633373</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>30</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>30</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>85352.97818578237</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>-538.5066549777584</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>2830.861639664583</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>-158.5022151750683</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>-19.57132395809696</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>-5.778060816090865</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>200</v>
       </c>
-      <c r="O5" t="n">
+      <c r="R5" t="n">
         <v>100</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
         <v>300</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="T5" t="n">
         <v>4</v>
       </c>
-      <c r="R5" t="n">
+      <c r="U5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -754,54 +805,63 @@
         <v>710.117562622037</v>
       </c>
       <c r="B6" t="n">
+        <v>20653940.8297357</v>
+      </c>
+      <c r="C6" t="n">
         <v>509.7788391113281</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-3.838296175003052</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>119.2364307266754</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43.42466354370117</v>
+      </c>
+      <c r="G6" t="n">
         <v>140.7442192455813</v>
       </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>1008.731150892598</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>21</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>21</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>80985.10019958313</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>-364.5191872832947</v>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>2732.403239083979</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>-159.4260256411466</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>-19.95273586867979</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>-5.192147918022641</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>200</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>100</v>
       </c>
-      <c r="P6" t="n">
+      <c r="S6" t="n">
         <v>300</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="T6" t="n">
         <v>5</v>
       </c>
-      <c r="R6" t="n">
+      <c r="U6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -810,54 +870,63 @@
         <v>743.7978104561155</v>
       </c>
       <c r="B7" t="n">
+        <v>22398619.93280308</v>
+      </c>
+      <c r="C7" t="n">
         <v>530.8075561523438</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-2.355567216873169</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>124.5719053068929</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45.38716125488281</v>
+      </c>
+      <c r="G7" t="n">
         <v>146.6436247977914</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
         <v>1045.816313190575</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>31</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>30</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>73220.43374101332</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>-379.4512045836746</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>2458.50228560279</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>-157.8202639111865</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>-17.41342806970113</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>-4.466176541808676</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>200</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>100</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
         <v>300</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="T7" t="n">
         <v>6</v>
       </c>
-      <c r="R7" t="n">
+      <c r="U7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,54 +935,63 @@
         <v>753.3808456877707</v>
       </c>
       <c r="B8" t="n">
+        <v>23308307.93649337</v>
+      </c>
+      <c r="C8" t="n">
         <v>548.7390747070312</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-2.290079593658447</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>126.686216329407</v>
+      </c>
+      <c r="F8" t="n">
+        <v>46.01499176025391</v>
+      </c>
+      <c r="G8" t="n">
         <v>149.4984680318082</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>1081.584251312783</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>33</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>32</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>82057.93021226679</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>-382.1734973729581</v>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>2790.730490593894</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>-157.5137882389588</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>-18.45465310921594</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>-5.390893438368217</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>200</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>100</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
         <v>300</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="T8" t="n">
         <v>7</v>
       </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -922,54 +1000,63 @@
         <v>744.1651260055334</v>
       </c>
       <c r="B9" t="n">
+        <v>22951353.38331822</v>
+      </c>
+      <c r="C9" t="n">
         <v>544.490234375</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-2.299333095550537</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>125.1358046377879</v>
+      </c>
+      <c r="F9" t="n">
+        <v>44.04039001464844</v>
+      </c>
+      <c r="G9" t="n">
         <v>148.8360044985098</v>
       </c>
-      <c r="E9" t="n">
+      <c r="H9" t="n">
         <v>1074.873459133303</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>33</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>33</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>71201.07435488471</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>-420.9038449008112</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>2300.275717524186</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>-162.2642420672849</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>-19.73160830038606</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>-5.410438860786912</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>200</v>
       </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
         <v>100</v>
       </c>
-      <c r="P9" t="n">
+      <c r="S9" t="n">
         <v>300</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="T9" t="n">
         <v>8</v>
       </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -978,54 +1065,63 @@
         <v>733.7444028663542</v>
       </c>
       <c r="B10" t="n">
+        <v>22488528.74293889</v>
+      </c>
+      <c r="C10" t="n">
         <v>548.07568359375</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-3.592716932296753</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>123.7882079627291</v>
+      </c>
+      <c r="F10" t="n">
+        <v>43.55777549743652</v>
+      </c>
+      <c r="G10" t="n">
         <v>147.1876058560329</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>1084.800009367202</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>32</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>31</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>89908.87638928328</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>-421.4722222396231</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>3144.907653008433</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>-159.2783483004898</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>-18.31141047484709</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>-5.02448488970161</v>
       </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
         <v>200</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>100</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
         <v>300</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>9</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1034,54 +1130,63 @@
         <v>769.1384292087795</v>
       </c>
       <c r="B11" t="n">
+        <v>24090710.60671353</v>
+      </c>
+      <c r="C11" t="n">
         <v>548.04150390625</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>-2.131342887878418</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>128.7727952432502</v>
+      </c>
+      <c r="F11" t="n">
+        <v>46.64282035827637</v>
+      </c>
+      <c r="G11" t="n">
         <v>152.2209416312482</v>
       </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
         <v>1079.21351199717</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>30</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>29</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>73487.98905113044</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>-396.2311406383524</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>2521.966202524152</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>-157.1126745673188</v>
       </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
         <v>-18.13830321542683</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>-5.495528819683948</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>200</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
         <v>100</v>
       </c>
-      <c r="P11" t="n">
+      <c r="S11" t="n">
         <v>300</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="T11" t="n">
         <v>10</v>
       </c>
-      <c r="R11" t="n">
+      <c r="U11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1090,54 +1195,63 @@
         <v>712.184909701142</v>
       </c>
       <c r="B12" t="n">
+        <v>21162631.76832157</v>
+      </c>
+      <c r="C12" t="n">
         <v>523.6636962890625</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-2.697242736816406</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>119.6908120931628</v>
+      </c>
+      <c r="F12" t="n">
+        <v>41.80241775512695</v>
+      </c>
+      <c r="G12" t="n">
         <v>143.3122892460715</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
         <v>1034.531180462463</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>29</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>29</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>77413.17793275122</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>-530.6211031733546</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>2601.653098801121</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>-161.1098835921406</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>-19.01862670329781</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>-7.680406203962781</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
         <v>200</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
         <v>100</v>
       </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
         <v>300</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="T12" t="n">
         <v>11</v>
       </c>
-      <c r="R12" t="n">
+      <c r="U12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1146,54 +1260,63 @@
         <v>751.9955085494743</v>
       </c>
       <c r="B13" t="n">
+        <v>23493856.93711756</v>
+      </c>
+      <c r="C13" t="n">
         <v>563.658935546875</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-3.377034425735474</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>127.1085287323926</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45.48254776000977</v>
+      </c>
+      <c r="G13" t="n">
         <v>149.9487712224215</v>
       </c>
-      <c r="E13" t="n">
+      <c r="H13" t="n">
         <v>1114.561588812295</v>
       </c>
-      <c r="F13" t="n">
-        <v>40</v>
-      </c>
-      <c r="G13" t="n">
-        <v>40</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
+        <v>40</v>
+      </c>
+      <c r="J13" t="n">
+        <v>40</v>
+      </c>
+      <c r="K13" t="n">
         <v>103928.617383158</v>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>-458.5348031346839</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>2842.355759820723</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>-159.8234166962135</v>
       </c>
-      <c r="L13" t="n">
+      <c r="O13" t="n">
         <v>-19.69942814206982</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>-5.443619035164358</v>
       </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
         <v>200</v>
       </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
         <v>100</v>
       </c>
-      <c r="P13" t="n">
+      <c r="S13" t="n">
         <v>300</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="T13" t="n">
         <v>12</v>
       </c>
-      <c r="R13" t="n">
+      <c r="U13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1202,54 +1325,63 @@
         <v>735.4162343055067</v>
       </c>
       <c r="B14" t="n">
+        <v>22682927.87559038</v>
+      </c>
+      <c r="C14" t="n">
         <v>566.2093505859375</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-2.526405096054077</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>122.9983964326297</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42.40853500366211</v>
+      </c>
+      <c r="G14" t="n">
         <v>149.3384362015721</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
         <v>1119.285177228508</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
         <v>36</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>35</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>81564.91213008441</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>-495.1614132759278</v>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>2718.400494364775</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>-156.7213170721551</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>-17.62157858054576</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>-5.109140696838652</v>
       </c>
-      <c r="N14" t="n">
-        <v>40</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
+        <v>40</v>
+      </c>
+      <c r="R14" t="n">
         <v>500</v>
       </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
         <v>110</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="T14" t="n">
         <v>13</v>
       </c>
-      <c r="R14" t="n">
+      <c r="U14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1258,54 +1390,63 @@
         <v>732.6067376126753</v>
       </c>
       <c r="B15" t="n">
+        <v>22072664.43045417</v>
+      </c>
+      <c r="C15" t="n">
         <v>543.214599609375</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-2.398988485336304</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>122.2207691492497</v>
+      </c>
+      <c r="F15" t="n">
+        <v>42.43593978881836</v>
+      </c>
+      <c r="G15" t="n">
         <v>146.7849666989799</v>
       </c>
-      <c r="E15" t="n">
+      <c r="H15" t="n">
         <v>1072.369667692007</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
         <v>26</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>26</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
         <v>79755.47864281363</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>-428.9178919707119</v>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>2726.007107553825</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>-160.5388627198147</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>-19.27756468623254</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>-2.283965964437828</v>
       </c>
-      <c r="N15" t="n">
-        <v>40</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
+        <v>40</v>
+      </c>
+      <c r="R15" t="n">
         <v>500</v>
       </c>
-      <c r="P15" t="n">
+      <c r="S15" t="n">
         <v>110</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="T15" t="n">
         <v>14</v>
       </c>
-      <c r="R15" t="n">
+      <c r="U15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1314,54 +1455,63 @@
         <v>740.8552487073215</v>
       </c>
       <c r="B16" t="n">
+        <v>22967251.85069417</v>
+      </c>
+      <c r="C16" t="n">
         <v>534.465576171875</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-2.183305978775024</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
+        <v>124.659589232972</v>
+      </c>
+      <c r="F16" t="n">
+        <v>42.69290924072266</v>
+      </c>
+      <c r="G16" t="n">
         <v>149.3228198349459</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>1055.077427187778</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
         <v>28</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
         <v>27</v>
       </c>
-      <c r="H16" t="n">
+      <c r="K16" t="n">
         <v>72401.95782401727</v>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>-394.023812222913</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>2514.696500090823</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>-159.8603759084157</v>
       </c>
-      <c r="L16" t="n">
+      <c r="O16" t="n">
         <v>-19.22142950707152</v>
       </c>
-      <c r="M16" t="n">
+      <c r="P16" t="n">
         <v>-5.287477212807611</v>
       </c>
-      <c r="N16" t="n">
-        <v>40</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
+        <v>40</v>
+      </c>
+      <c r="R16" t="n">
         <v>500</v>
       </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
         <v>110</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="T16" t="n">
         <v>15</v>
       </c>
-      <c r="R16" t="n">
+      <c r="U16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1370,54 +1520,63 @@
         <v>805.132579548532</v>
       </c>
       <c r="B17" t="n">
+        <v>26285610.35960633</v>
+      </c>
+      <c r="C17" t="n">
         <v>561.987548828125</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-2.184017658233643</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
+        <v>135.1476463510228</v>
+      </c>
+      <c r="F17" t="n">
+        <v>49.46982574462891</v>
+      </c>
+      <c r="G17" t="n">
         <v>158.463586790766</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
         <v>1111.864099464954</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
         <v>33</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>34</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
         <v>82147.71379001232</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>-414.7851748301437</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>2873.566020223083</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
         <v>-161.0799267786452</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
         <v>-20.31827508187847</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>-4.561873707075286</v>
       </c>
-      <c r="N17" t="n">
-        <v>40</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
+        <v>40</v>
+      </c>
+      <c r="R17" t="n">
         <v>500</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
         <v>110</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="T17" t="n">
         <v>16</v>
       </c>
-      <c r="R17" t="n">
+      <c r="U17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1426,54 +1585,63 @@
         <v>719.203531053337</v>
       </c>
       <c r="B18" t="n">
+        <v>22042257.37440063</v>
+      </c>
+      <c r="C18" t="n">
         <v>544.2510375976562</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-2.46874737739563</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
+        <v>120.8429787343755</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40.20010375976562</v>
+      </c>
+      <c r="G18" t="n">
         <v>147.5477431022403</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
         <v>1076.522845241799</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
         <v>32</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>32</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>74354.50875110115</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>-430.6553416127845</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>2506.773623613161</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>-159.7813872976706</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>-18.18322452772706</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>-4.458353809681882</v>
       </c>
-      <c r="N18" t="n">
-        <v>40</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
+        <v>40</v>
+      </c>
+      <c r="R18" t="n">
         <v>500</v>
       </c>
-      <c r="P18" t="n">
+      <c r="S18" t="n">
         <v>110</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="T18" t="n">
         <v>17</v>
       </c>
-      <c r="R18" t="n">
+      <c r="U18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1482,54 +1650,63 @@
         <v>732.8164479972201</v>
       </c>
       <c r="B19" t="n">
+        <v>22593113.23564153</v>
+      </c>
+      <c r="C19" t="n">
         <v>531.1819458007812</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>-2.20537257194519</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
+        <v>123.1808866439326</v>
+      </c>
+      <c r="F19" t="n">
+        <v>41.33866310119628</v>
+      </c>
+      <c r="G19" t="n">
         <v>148.6903972720858</v>
       </c>
-      <c r="E19" t="n">
+      <c r="H19" t="n">
         <v>1049.304176701265</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
         <v>34</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
         <v>33</v>
       </c>
-      <c r="H19" t="n">
+      <c r="K19" t="n">
         <v>81508.84305070186</v>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>-392.5377254761042</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>2820.429227612946</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>-158.3593004912207</v>
       </c>
-      <c r="L19" t="n">
+      <c r="O19" t="n">
         <v>-17.65534979035898</v>
       </c>
-      <c r="M19" t="n">
+      <c r="P19" t="n">
         <v>-4.219021587954893</v>
       </c>
-      <c r="N19" t="n">
-        <v>40</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
+        <v>40</v>
+      </c>
+      <c r="R19" t="n">
         <v>500</v>
       </c>
-      <c r="P19" t="n">
+      <c r="S19" t="n">
         <v>110</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="T19" t="n">
         <v>18</v>
       </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,54 +1715,63 @@
         <v>734.5791188709798</v>
       </c>
       <c r="B20" t="n">
+        <v>22800661.91516335</v>
+      </c>
+      <c r="C20" t="n">
         <v>571.4619140625</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>-2.560572624206543</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
+        <v>123.1177683845778</v>
+      </c>
+      <c r="F20" t="n">
+        <v>41.81309509277344</v>
+      </c>
+      <c r="G20" t="n">
         <v>150.096834063463</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
         <v>1130.227289950683</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
         <v>37</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
         <v>36</v>
       </c>
-      <c r="H20" t="n">
+      <c r="K20" t="n">
         <v>69655.55899708587</v>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>-523.7581580490587</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>2407.585871113891</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>-155.9259817353095</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
         <v>-17.74163514176389</v>
       </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
         <v>-4.154762280813807</v>
       </c>
-      <c r="N20" t="n">
-        <v>40</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
+        <v>40</v>
+      </c>
+      <c r="R20" t="n">
         <v>500</v>
       </c>
-      <c r="P20" t="n">
+      <c r="S20" t="n">
         <v>110</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
         <v>19</v>
       </c>
-      <c r="R20" t="n">
+      <c r="U20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1594,54 +1780,63 @@
         <v>720.3864782938742</v>
       </c>
       <c r="B21" t="n">
+        <v>21585691.32036081</v>
+      </c>
+      <c r="C21" t="n">
         <v>536.9256591796875</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>-2.329941749572754</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>119.9595341108154</v>
+      </c>
+      <c r="F21" t="n">
+        <v>40.65993881225586</v>
+      </c>
+      <c r="G21" t="n">
         <v>145.9059245014117</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>1061.996652874798</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
         <v>39</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
         <v>39</v>
       </c>
-      <c r="H21" t="n">
+      <c r="K21" t="n">
         <v>80028.32943035974</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>-419.3554282887862</v>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>2742.020856035959</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
         <v>-158.8412868217782</v>
       </c>
-      <c r="L21" t="n">
+      <c r="O21" t="n">
         <v>-17.90797558688439</v>
       </c>
-      <c r="M21" t="n">
+      <c r="P21" t="n">
         <v>-4.887152543173981</v>
       </c>
-      <c r="N21" t="n">
-        <v>40</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
+        <v>40</v>
+      </c>
+      <c r="R21" t="n">
         <v>500</v>
       </c>
-      <c r="P21" t="n">
+      <c r="S21" t="n">
         <v>110</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="T21" t="n">
         <v>20</v>
       </c>
-      <c r="R21" t="n">
+      <c r="U21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1650,54 +1845,63 @@
         <v>737.9340098089095</v>
       </c>
       <c r="B22" t="n">
+        <v>23025003.42804299</v>
+      </c>
+      <c r="C22" t="n">
         <v>533.3031616210938</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>-2.213914394378662</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
+        <v>124.2845851021682</v>
+      </c>
+      <c r="F22" t="n">
+        <v>41.72198104858398</v>
+      </c>
+      <c r="G22" t="n">
         <v>149.9526666942659</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>1053.369596913745</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
         <v>30</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
         <v>30</v>
       </c>
-      <c r="H22" t="n">
+      <c r="K22" t="n">
         <v>73299.04731280735</v>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>-391.1229234825041</v>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>2435.626229423095</v>
       </c>
-      <c r="K22" t="n">
+      <c r="N22" t="n">
         <v>-159.0820323770602</v>
       </c>
-      <c r="L22" t="n">
+      <c r="O22" t="n">
         <v>-18.6948955146023</v>
       </c>
-      <c r="M22" t="n">
+      <c r="P22" t="n">
         <v>-5.916958206351657</v>
       </c>
-      <c r="N22" t="n">
-        <v>40</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
+        <v>40</v>
+      </c>
+      <c r="R22" t="n">
         <v>500</v>
       </c>
-      <c r="P22" t="n">
+      <c r="S22" t="n">
         <v>110</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="T22" t="n">
         <v>21</v>
       </c>
-      <c r="R22" t="n">
+      <c r="U22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,54 +1910,63 @@
         <v>730.0206155926342</v>
       </c>
       <c r="B23" t="n">
+        <v>22845444.14773246</v>
+      </c>
+      <c r="C23" t="n">
         <v>570.2098388671875</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>-2.482271909713745</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
+        <v>122.5998203566933</v>
+      </c>
+      <c r="F23" t="n">
+        <v>40.68556594848633</v>
+      </c>
+      <c r="G23" t="n">
         <v>150.3526856790372</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>1128.058618939222</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
         <v>27</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
         <v>26</v>
       </c>
-      <c r="H23" t="n">
+      <c r="K23" t="n">
         <v>84194.14571680146</v>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>-524.2888977082257</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>2810.598372890953</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>-157.5045241724672</v>
       </c>
-      <c r="L23" t="n">
+      <c r="O23" t="n">
         <v>-17.41009009248963</v>
       </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
         <v>-4.787269147094661</v>
       </c>
-      <c r="N23" t="n">
-        <v>40</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
+        <v>40</v>
+      </c>
+      <c r="R23" t="n">
         <v>500</v>
       </c>
-      <c r="P23" t="n">
+      <c r="S23" t="n">
         <v>110</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="T23" t="n">
         <v>22</v>
       </c>
-      <c r="R23" t="n">
+      <c r="U23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1762,54 +1975,63 @@
         <v>727.5721762316174</v>
       </c>
       <c r="B24" t="n">
+        <v>22659563.30171829</v>
+      </c>
+      <c r="C24" t="n">
         <v>548.2507934570312</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>-2.420343160629272</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
+        <v>122.448469207886</v>
+      </c>
+      <c r="F24" t="n">
+        <v>40.60726547241211</v>
+      </c>
+      <c r="G24" t="n">
         <v>149.454975459715</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>1085.371906078663</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
         <v>41</v>
       </c>
-      <c r="G24" t="n">
-        <v>40</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
+        <v>40</v>
+      </c>
+      <c r="K24" t="n">
         <v>72860.97483933522</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>-437.0684003578135</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>2404.695562052321</v>
       </c>
-      <c r="K24" t="n">
+      <c r="N24" t="n">
         <v>-163.1417775312241</v>
       </c>
-      <c r="L24" t="n">
+      <c r="O24" t="n">
         <v>-19.34254281440169</v>
       </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
         <v>-5.83985595917451</v>
       </c>
-      <c r="N24" t="n">
-        <v>40</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
+        <v>40</v>
+      </c>
+      <c r="R24" t="n">
         <v>500</v>
       </c>
-      <c r="P24" t="n">
+      <c r="S24" t="n">
         <v>110</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="T24" t="n">
         <v>23</v>
       </c>
-      <c r="R24" t="n">
+      <c r="U24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,54 +2040,63 @@
         <v>737.2277506654441</v>
       </c>
       <c r="B25" t="n">
+        <v>22655406.88981133</v>
+      </c>
+      <c r="C25" t="n">
         <v>532.7522583007812</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>-2.212490797042847</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
+        <v>123.3232332672847</v>
+      </c>
+      <c r="F25" t="n">
+        <v>41.3404426574707</v>
+      </c>
+      <c r="G25" t="n">
         <v>149.1252281586892</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>1052.542859483773</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
         <v>32</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
         <v>32</v>
       </c>
-      <c r="H25" t="n">
+      <c r="K25" t="n">
         <v>76037.54367941356</v>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>-463.2218142660568</v>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>2574.090234198208</v>
       </c>
-      <c r="K25" t="n">
+      <c r="N25" t="n">
         <v>-159.2246349240925</v>
       </c>
-      <c r="L25" t="n">
+      <c r="O25" t="n">
         <v>-17.38479629187148</v>
       </c>
-      <c r="M25" t="n">
+      <c r="P25" t="n">
         <v>-4.710734227391366</v>
       </c>
-      <c r="N25" t="n">
-        <v>40</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
+        <v>40</v>
+      </c>
+      <c r="R25" t="n">
         <v>500</v>
       </c>
-      <c r="P25" t="n">
+      <c r="S25" t="n">
         <v>110</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="T25" t="n">
         <v>24</v>
       </c>
-      <c r="R25" t="n">
+      <c r="U25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1874,54 +2105,63 @@
         <v>866.541487612878</v>
       </c>
       <c r="B26" t="n">
+        <v>31349237.40172727</v>
+      </c>
+      <c r="C26" t="n">
         <v>632.7001342773438</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>-2.510033130645752</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
+        <v>146.2566314948536</v>
+      </c>
+      <c r="F26" t="n">
+        <v>51.48179626464844</v>
+      </c>
+      <c r="G26" t="n">
         <v>173.6958360764694</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>1247.165667074527</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
         <v>24</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
         <v>23</v>
       </c>
-      <c r="H26" t="n">
+      <c r="K26" t="n">
         <v>97255.35432062943</v>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
         <v>-484.9246001339379</v>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
         <v>3452.200274999162</v>
       </c>
-      <c r="K26" t="n">
+      <c r="N26" t="n">
         <v>-163.6414435336051</v>
       </c>
-      <c r="L26" t="n">
+      <c r="O26" t="n">
         <v>-21.18716421419565</v>
       </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
         <v>-6.620370172392129</v>
       </c>
-      <c r="N26" t="n">
-        <v>40</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
+        <v>40</v>
+      </c>
+      <c r="R26" t="n">
         <v>500</v>
       </c>
-      <c r="P26" t="n">
+      <c r="S26" t="n">
         <v>110</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="T26" t="n">
         <v>25</v>
       </c>
-      <c r="R26" t="n">
+      <c r="U26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1930,54 +2170,63 @@
         <v>929.5963316095928</v>
       </c>
       <c r="B27" t="n">
+        <v>36184627.19303306</v>
+      </c>
+      <c r="C27" t="n">
         <v>717.7352905273438</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>-2.086498022079468</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
+        <v>155.6964742480846</v>
+      </c>
+      <c r="F27" t="n">
+        <v>54.77326965332031</v>
+      </c>
+      <c r="G27" t="n">
         <v>187.5501877362593</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>1416.384247539168</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
         <v>25</v>
       </c>
-      <c r="G27" t="n">
+      <c r="J27" t="n">
         <v>24</v>
       </c>
-      <c r="H27" t="n">
+      <c r="K27" t="n">
         <v>130106.4638708271</v>
       </c>
-      <c r="I27" t="n">
+      <c r="L27" t="n">
         <v>-630.2628117283093</v>
       </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
         <v>4248.668444147665</v>
       </c>
-      <c r="K27" t="n">
+      <c r="N27" t="n">
         <v>-181.0487523875383</v>
       </c>
-      <c r="L27" t="n">
+      <c r="O27" t="n">
         <v>-26.3463446862424</v>
       </c>
-      <c r="M27" t="n">
+      <c r="P27" t="n">
         <v>-6.444227768310893</v>
       </c>
-      <c r="N27" t="n">
-        <v>40</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
+        <v>40</v>
+      </c>
+      <c r="R27" t="n">
         <v>500</v>
       </c>
-      <c r="P27" t="n">
+      <c r="S27" t="n">
         <v>110</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="T27" t="n">
         <v>26</v>
       </c>
-      <c r="R27" t="n">
+      <c r="U27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1986,54 +2235,63 @@
         <v>872.9208677318059</v>
       </c>
       <c r="B28" t="n">
+        <v>31979852.14825071</v>
+      </c>
+      <c r="C28" t="n">
         <v>649.9860229492188</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>-3.25246524810791</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
+        <v>147.4419924831309</v>
+      </c>
+      <c r="F28" t="n">
+        <v>51.27679061889648</v>
+      </c>
+      <c r="G28" t="n">
         <v>175.9146184979735</v>
       </c>
-      <c r="E28" t="n">
+      <c r="H28" t="n">
         <v>1283.478972602628</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
         <v>28</v>
       </c>
-      <c r="G28" t="n">
+      <c r="J28" t="n">
         <v>27</v>
       </c>
-      <c r="H28" t="n">
+      <c r="K28" t="n">
         <v>97831.87377046401</v>
       </c>
-      <c r="I28" t="n">
+      <c r="L28" t="n">
         <v>-531.8855118194915</v>
       </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
         <v>3376.193930877864</v>
       </c>
-      <c r="K28" t="n">
+      <c r="N28" t="n">
         <v>-169.8664385965626</v>
       </c>
-      <c r="L28" t="n">
+      <c r="O28" t="n">
         <v>-21.74758732663141</v>
       </c>
-      <c r="M28" t="n">
+      <c r="P28" t="n">
         <v>-5.980304070964325</v>
       </c>
-      <c r="N28" t="n">
-        <v>40</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
+        <v>40</v>
+      </c>
+      <c r="R28" t="n">
         <v>500</v>
       </c>
-      <c r="P28" t="n">
+      <c r="S28" t="n">
         <v>110</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="T28" t="n">
         <v>27</v>
       </c>
-      <c r="R28" t="n">
+      <c r="U28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2042,54 +2300,63 @@
         <v>902.0906773322912</v>
       </c>
       <c r="B29" t="n">
+        <v>33169285.83644799</v>
+      </c>
+      <c r="C29" t="n">
         <v>639.2588500976562</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>-2.144867420196533</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
+        <v>152.075870226749</v>
+      </c>
+      <c r="F29" t="n">
+        <v>56.82830429077148</v>
+      </c>
+      <c r="G29" t="n">
         <v>177.0256909938986</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>1257.422135514155</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
         <v>21</v>
       </c>
-      <c r="G29" t="n">
+      <c r="J29" t="n">
         <v>22</v>
       </c>
-      <c r="H29" t="n">
+      <c r="K29" t="n">
         <v>93666.15331829224</v>
       </c>
-      <c r="I29" t="n">
+      <c r="L29" t="n">
         <v>-481.5992323229948</v>
       </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
         <v>3355.940181392561</v>
       </c>
-      <c r="K29" t="n">
+      <c r="N29" t="n">
         <v>-168.7451669020007</v>
       </c>
-      <c r="L29" t="n">
+      <c r="O29" t="n">
         <v>-23.57207617451003</v>
       </c>
-      <c r="M29" t="n">
+      <c r="P29" t="n">
         <v>-5.681632640478958</v>
       </c>
-      <c r="N29" t="n">
+      <c r="Q29" t="n">
         <v>50</v>
       </c>
-      <c r="O29" t="n">
+      <c r="R29" t="n">
         <v>500</v>
       </c>
-      <c r="P29" t="n">
+      <c r="S29" t="n">
         <v>110</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="T29" t="n">
         <v>28</v>
       </c>
-      <c r="R29" t="n">
+      <c r="U29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2098,54 +2365,63 @@
         <v>876.7403205513629</v>
       </c>
       <c r="B30" t="n">
+        <v>34184906.13546189</v>
+      </c>
+      <c r="C30" t="n">
         <v>715.236083984375</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>-2.726427555084229</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
+        <v>147.3219020277041</v>
+      </c>
+      <c r="F30" t="n">
+        <v>46.68019104003906</v>
+      </c>
+      <c r="G30" t="n">
         <v>186.298130371916</v>
       </c>
-      <c r="E30" t="n">
+      <c r="H30" t="n">
         <v>1417.073207350867</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
         <v>26</v>
       </c>
-      <c r="G30" t="n">
+      <c r="J30" t="n">
         <v>25</v>
       </c>
-      <c r="H30" t="n">
+      <c r="K30" t="n">
         <v>85076.92397896977</v>
       </c>
-      <c r="I30" t="n">
+      <c r="L30" t="n">
         <v>-650.134852891526</v>
       </c>
-      <c r="J30" t="n">
+      <c r="M30" t="n">
         <v>2744.83397766723</v>
       </c>
-      <c r="K30" t="n">
+      <c r="N30" t="n">
         <v>-181.1654336695777</v>
       </c>
-      <c r="L30" t="n">
+      <c r="O30" t="n">
         <v>-22.53988205797265</v>
       </c>
-      <c r="M30" t="n">
+      <c r="P30" t="n">
         <v>-6.030122898927371</v>
       </c>
-      <c r="N30" t="n">
+      <c r="Q30" t="n">
         <v>50</v>
       </c>
-      <c r="O30" t="n">
+      <c r="R30" t="n">
         <v>500</v>
       </c>
-      <c r="P30" t="n">
+      <c r="S30" t="n">
         <v>110</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="T30" t="n">
         <v>29</v>
       </c>
-      <c r="R30" t="n">
+      <c r="U30" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2154,54 +2430,63 @@
         <v>889.9264180114194</v>
       </c>
       <c r="B31" t="n">
+        <v>32823749.44325779</v>
+      </c>
+      <c r="C31" t="n">
         <v>656.9156494140625</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>-2.739240407943726</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
+        <v>150.1038244195184</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53.69628143310547</v>
+      </c>
+      <c r="G31" t="n">
         <v>177.1062512495679</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>1294.563299746887</v>
       </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
         <v>24</v>
       </c>
-      <c r="G31" t="n">
+      <c r="J31" t="n">
         <v>24</v>
       </c>
-      <c r="H31" t="n">
+      <c r="K31" t="n">
         <v>139713.8358595605</v>
       </c>
-      <c r="I31" t="n">
+      <c r="L31" t="n">
         <v>-533.8442318713787</v>
       </c>
-      <c r="J31" t="n">
+      <c r="M31" t="n">
         <v>4608.787229821057</v>
       </c>
-      <c r="K31" t="n">
+      <c r="N31" t="n">
         <v>-168.8928214683998</v>
       </c>
-      <c r="L31" t="n">
+      <c r="O31" t="n">
         <v>-24.23807265851311</v>
       </c>
-      <c r="M31" t="n">
+      <c r="P31" t="n">
         <v>-5.97378266270427</v>
       </c>
-      <c r="N31" t="n">
+      <c r="Q31" t="n">
         <v>50</v>
       </c>
-      <c r="O31" t="n">
+      <c r="R31" t="n">
         <v>500</v>
       </c>
-      <c r="P31" t="n">
+      <c r="S31" t="n">
         <v>110</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="T31" t="n">
         <v>30</v>
       </c>
-      <c r="R31" t="n">
+      <c r="U31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2210,54 +2495,63 @@
         <v>1055.090335536741</v>
       </c>
       <c r="B32" t="n">
+        <v>39934300.10327561</v>
+      </c>
+      <c r="C32" t="n">
         <v>685.1466064453125</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>-2.016739130020142</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
+        <v>176.9889758336035</v>
+      </c>
+      <c r="F32" t="n">
+        <v>82.07349014282227</v>
+      </c>
+      <c r="G32" t="n">
         <v>185.9383968476542</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
         <v>1335.9880334637</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
         <v>25</v>
       </c>
-      <c r="G32" t="n">
+      <c r="J32" t="n">
         <v>24</v>
       </c>
-      <c r="H32" t="n">
+      <c r="K32" t="n">
         <v>88994.70909302321</v>
       </c>
-      <c r="I32" t="n">
+      <c r="L32" t="n">
         <v>-514.706810881351</v>
       </c>
-      <c r="J32" t="n">
+      <c r="M32" t="n">
         <v>2992.586804333491</v>
       </c>
-      <c r="K32" t="n">
+      <c r="N32" t="n">
         <v>-171.3099567778615</v>
       </c>
-      <c r="L32" t="n">
+      <c r="O32" t="n">
         <v>-32.60409263005797</v>
       </c>
-      <c r="M32" t="n">
+      <c r="P32" t="n">
         <v>-6.932338721361087</v>
       </c>
-      <c r="N32" t="n">
+      <c r="Q32" t="n">
         <v>50</v>
       </c>
-      <c r="O32" t="n">
+      <c r="R32" t="n">
         <v>500</v>
       </c>
-      <c r="P32" t="n">
+      <c r="S32" t="n">
         <v>110</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="T32" t="n">
         <v>31</v>
       </c>
-      <c r="R32" t="n">
+      <c r="U32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2266,54 +2560,63 @@
         <v>835.8210497139942</v>
       </c>
       <c r="B33" t="n">
+        <v>29173253.46053416</v>
+      </c>
+      <c r="C33" t="n">
         <v>649.4586181640625</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>-4.429109573364258</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
+        <v>140.7650466818804</v>
+      </c>
+      <c r="F33" t="n">
+        <v>48.83879470825195</v>
+      </c>
+      <c r="G33" t="n">
         <v>168.0671732202719</v>
       </c>
-      <c r="E33" t="n">
+      <c r="H33" t="n">
         <v>1285.687430588968</v>
       </c>
-      <c r="F33" t="n">
+      <c r="I33" t="n">
         <v>32</v>
       </c>
-      <c r="G33" t="n">
+      <c r="J33" t="n">
         <v>32</v>
       </c>
-      <c r="H33" t="n">
+      <c r="K33" t="n">
         <v>103939.5786706113</v>
       </c>
-      <c r="I33" t="n">
+      <c r="L33" t="n">
         <v>-594.1847111537209</v>
       </c>
-      <c r="J33" t="n">
+      <c r="M33" t="n">
         <v>3613.120565992179</v>
       </c>
-      <c r="K33" t="n">
+      <c r="N33" t="n">
         <v>-165.3240650103392</v>
       </c>
-      <c r="L33" t="n">
+      <c r="O33" t="n">
         <v>-25.02988820351929</v>
       </c>
-      <c r="M33" t="n">
+      <c r="P33" t="n">
         <v>-5.578410581599772</v>
       </c>
-      <c r="N33" t="n">
+      <c r="Q33" t="n">
         <v>50</v>
       </c>
-      <c r="O33" t="n">
+      <c r="R33" t="n">
         <v>500</v>
       </c>
-      <c r="P33" t="n">
+      <c r="S33" t="n">
         <v>110</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="T33" t="n">
         <v>32</v>
       </c>
-      <c r="R33" t="n">
+      <c r="U33" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2322,54 +2625,63 @@
         <v>867.7328594535541</v>
       </c>
       <c r="B34" t="n">
+        <v>32536398.31979705</v>
+      </c>
+      <c r="C34" t="n">
         <v>670.94140625</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>-2.421766996383667</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
+        <v>145.6530640525269</v>
+      </c>
+      <c r="F34" t="n">
+        <v>47.42369079589844</v>
+      </c>
+      <c r="G34" t="n">
         <v>179.4745841168835</v>
       </c>
-      <c r="E34" t="n">
+      <c r="H34" t="n">
         <v>1326.197984705804</v>
       </c>
-      <c r="F34" t="n">
+      <c r="I34" t="n">
         <v>29</v>
       </c>
-      <c r="G34" t="n">
+      <c r="J34" t="n">
         <v>28</v>
       </c>
-      <c r="H34" t="n">
+      <c r="K34" t="n">
         <v>134913.7674848129</v>
       </c>
-      <c r="I34" t="n">
+      <c r="L34" t="n">
         <v>-564.8155014779695</v>
       </c>
-      <c r="J34" t="n">
+      <c r="M34" t="n">
         <v>4450.338788729086</v>
       </c>
-      <c r="K34" t="n">
+      <c r="N34" t="n">
         <v>-173.5893380977236</v>
       </c>
-      <c r="L34" t="n">
+      <c r="O34" t="n">
         <v>-21.93700671806313</v>
       </c>
-      <c r="M34" t="n">
+      <c r="P34" t="n">
         <v>-6.079745876299335</v>
       </c>
-      <c r="N34" t="n">
+      <c r="Q34" t="n">
         <v>50</v>
       </c>
-      <c r="O34" t="n">
+      <c r="R34" t="n">
         <v>500</v>
       </c>
-      <c r="P34" t="n">
+      <c r="S34" t="n">
         <v>110</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="T34" t="n">
         <v>33</v>
       </c>
-      <c r="R34" t="n">
+      <c r="U34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2378,54 +2690,63 @@
         <v>1105.223865836346</v>
       </c>
       <c r="B35" t="n">
+        <v>42163118.32369335</v>
+      </c>
+      <c r="C35" t="n">
         <v>697.9558715820312</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>-1.886475324630737</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
+        <v>184.8643758715218</v>
+      </c>
+      <c r="F35" t="n">
+        <v>90.66698455810547</v>
+      </c>
+      <c r="G35" t="n">
         <v>187.8473914480035</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>1357.611148269546</v>
       </c>
-      <c r="F35" t="n">
+      <c r="I35" t="n">
         <v>17</v>
       </c>
-      <c r="G35" t="n">
+      <c r="J35" t="n">
         <v>16</v>
       </c>
-      <c r="H35" t="n">
+      <c r="K35" t="n">
         <v>98816.03852696149</v>
       </c>
-      <c r="I35" t="n">
+      <c r="L35" t="n">
         <v>-530.8273428305038</v>
       </c>
-      <c r="J35" t="n">
+      <c r="M35" t="n">
         <v>3369.335784010982</v>
       </c>
-      <c r="K35" t="n">
+      <c r="N35" t="n">
         <v>-169.3154400992894</v>
       </c>
-      <c r="L35" t="n">
+      <c r="O35" t="n">
         <v>-32.67537992483459</v>
       </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
         <v>-7.507443497942897</v>
       </c>
-      <c r="N35" t="n">
+      <c r="Q35" t="n">
         <v>50</v>
       </c>
-      <c r="O35" t="n">
+      <c r="R35" t="n">
         <v>500</v>
       </c>
-      <c r="P35" t="n">
+      <c r="S35" t="n">
         <v>110</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="T35" t="n">
         <v>34</v>
       </c>
-      <c r="R35" t="n">
+      <c r="U35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2434,54 +2755,63 @@
         <v>865.970861755954</v>
       </c>
       <c r="B36" t="n">
+        <v>32282029.24421228</v>
+      </c>
+      <c r="C36" t="n">
         <v>681.032958984375</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>-4.109500885009766</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
+        <v>146.3537413586189</v>
+      </c>
+      <c r="F36" t="n">
+        <v>49.0139045715332</v>
+      </c>
+      <c r="G36" t="n">
         <v>178.2231666351076</v>
       </c>
-      <c r="E36" t="n">
+      <c r="H36" t="n">
         <v>1348.525573217619</v>
       </c>
-      <c r="F36" t="n">
+      <c r="I36" t="n">
         <v>29</v>
       </c>
-      <c r="G36" t="n">
+      <c r="J36" t="n">
         <v>29</v>
       </c>
-      <c r="H36" t="n">
+      <c r="K36" t="n">
         <v>87220.71070360352</v>
       </c>
-      <c r="I36" t="n">
+      <c r="L36" t="n">
         <v>-613.7412762630265</v>
       </c>
-      <c r="J36" t="n">
+      <c r="M36" t="n">
         <v>2861.063335602371</v>
       </c>
-      <c r="K36" t="n">
+      <c r="N36" t="n">
         <v>-172.3682790876386</v>
       </c>
-      <c r="L36" t="n">
+      <c r="O36" t="n">
         <v>-24.13391355687568</v>
       </c>
-      <c r="M36" t="n">
+      <c r="P36" t="n">
         <v>-5.487768556621201</v>
       </c>
-      <c r="N36" t="n">
+      <c r="Q36" t="n">
         <v>50</v>
       </c>
-      <c r="O36" t="n">
+      <c r="R36" t="n">
         <v>500</v>
       </c>
-      <c r="P36" t="n">
+      <c r="S36" t="n">
         <v>110</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="T36" t="n">
         <v>35</v>
       </c>
-      <c r="R36" t="n">
+      <c r="U36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2490,54 +2820,63 @@
         <v>849.1798432007781</v>
       </c>
       <c r="B37" t="n">
+        <v>31005182.36940277</v>
+      </c>
+      <c r="C37" t="n">
         <v>636.1538696289062</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>-2.246658325195312</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
+        <v>143.557375135758</v>
+      </c>
+      <c r="F37" t="n">
+        <v>47.0521183013916</v>
+      </c>
+      <c r="G37" t="n">
         <v>174.3176576921585</v>
       </c>
-      <c r="E37" t="n">
+      <c r="H37" t="n">
         <v>1256.449822095841</v>
       </c>
-      <c r="F37" t="n">
+      <c r="I37" t="n">
         <v>24</v>
       </c>
-      <c r="G37" t="n">
+      <c r="J37" t="n">
         <v>24</v>
       </c>
-      <c r="H37" t="n">
+      <c r="K37" t="n">
         <v>80592.97418098265</v>
       </c>
-      <c r="I37" t="n">
+      <c r="L37" t="n">
         <v>-522.1377243316965</v>
       </c>
-      <c r="J37" t="n">
+      <c r="M37" t="n">
         <v>2641.571076009916</v>
       </c>
-      <c r="K37" t="n">
+      <c r="N37" t="n">
         <v>-167.0022984936041</v>
       </c>
-      <c r="L37" t="n">
+      <c r="O37" t="n">
         <v>-21.56094967353781</v>
       </c>
-      <c r="M37" t="n">
+      <c r="P37" t="n">
         <v>-5.126523654912444</v>
       </c>
-      <c r="N37" t="n">
+      <c r="Q37" t="n">
         <v>50</v>
       </c>
-      <c r="O37" t="n">
+      <c r="R37" t="n">
         <v>500</v>
       </c>
-      <c r="P37" t="n">
+      <c r="S37" t="n">
         <v>110</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="T37" t="n">
         <v>36</v>
       </c>
-      <c r="R37" t="n">
+      <c r="U37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2546,54 +2885,63 @@
         <v>1044.08033253835</v>
       </c>
       <c r="B38" t="n">
+        <v>39707034.05135467</v>
+      </c>
+      <c r="C38" t="n">
         <v>681.336181640625</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>-2.017451047897339</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
+        <v>175.8660977212528</v>
+      </c>
+      <c r="F38" t="n">
+        <v>80.90361022949219</v>
+      </c>
+      <c r="G38" t="n">
         <v>185.4150411031694</v>
       </c>
-      <c r="E38" t="n">
+      <c r="H38" t="n">
         <v>1327.742172883617</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
         <v>22</v>
       </c>
-      <c r="G38" t="n">
+      <c r="J38" t="n">
         <v>22</v>
       </c>
-      <c r="H38" t="n">
+      <c r="K38" t="n">
         <v>89837.0599791657</v>
       </c>
-      <c r="I38" t="n">
+      <c r="L38" t="n">
         <v>-513.9622203398867</v>
       </c>
-      <c r="J38" t="n">
+      <c r="M38" t="n">
         <v>2972.766117069179</v>
       </c>
-      <c r="K38" t="n">
+      <c r="N38" t="n">
         <v>-170.0654801022273</v>
       </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
         <v>-30.29750642755821</v>
       </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>-8.118376839690823</v>
       </c>
-      <c r="N38" t="n">
+      <c r="Q38" t="n">
         <v>50</v>
       </c>
-      <c r="O38" t="n">
+      <c r="R38" t="n">
         <v>500</v>
       </c>
-      <c r="P38" t="n">
+      <c r="S38" t="n">
         <v>110</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="T38" t="n">
         <v>37</v>
       </c>
-      <c r="R38" t="n">
+      <c r="U38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2602,54 +2950,63 @@
         <v>867.9821117213271</v>
       </c>
       <c r="B39" t="n">
+        <v>32134056.71176616</v>
+      </c>
+      <c r="C39" t="n">
         <v>686.3367309570312</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>-4.063232421875</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
+        <v>145.5382396343242</v>
+      </c>
+      <c r="F39" t="n">
+        <v>48.7562255859375</v>
+      </c>
+      <c r="G39" t="n">
         <v>178.2070669608663</v>
       </c>
-      <c r="E39" t="n">
+      <c r="H39" t="n">
         <v>1359.595810697787</v>
       </c>
-      <c r="F39" t="n">
+      <c r="I39" t="n">
         <v>24</v>
       </c>
-      <c r="G39" t="n">
+      <c r="J39" t="n">
         <v>24</v>
       </c>
-      <c r="H39" t="n">
+      <c r="K39" t="n">
         <v>103334.6567379953</v>
       </c>
-      <c r="I39" t="n">
+      <c r="L39" t="n">
         <v>-619.7917083775137</v>
       </c>
-      <c r="J39" t="n">
+      <c r="M39" t="n">
         <v>3528.793869154565</v>
       </c>
-      <c r="K39" t="n">
+      <c r="N39" t="n">
         <v>-172.6789940459442</v>
       </c>
-      <c r="L39" t="n">
+      <c r="O39" t="n">
         <v>-24.76835564857396</v>
       </c>
-      <c r="M39" t="n">
+      <c r="P39" t="n">
         <v>-5.698203770212558</v>
       </c>
-      <c r="N39" t="n">
+      <c r="Q39" t="n">
         <v>50</v>
       </c>
-      <c r="O39" t="n">
+      <c r="R39" t="n">
         <v>500</v>
       </c>
-      <c r="P39" t="n">
+      <c r="S39" t="n">
         <v>110</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="T39" t="n">
         <v>38</v>
       </c>
-      <c r="R39" t="n">
+      <c r="U39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2658,54 +3015,63 @@
         <v>858.8632601797656</v>
       </c>
       <c r="B40" t="n">
+        <v>31490617.23299543</v>
+      </c>
+      <c r="C40" t="n">
         <v>648.272705078125</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>-2.195406913757324</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
+        <v>144.3691043420779</v>
+      </c>
+      <c r="F40" t="n">
+        <v>47.4315185546875</v>
+      </c>
+      <c r="G40" t="n">
         <v>176.1722666366277</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>1279.597316076281</v>
       </c>
-      <c r="F40" t="n">
+      <c r="I40" t="n">
         <v>32</v>
       </c>
-      <c r="G40" t="n">
+      <c r="J40" t="n">
         <v>31</v>
       </c>
-      <c r="H40" t="n">
+      <c r="K40" t="n">
         <v>86475.70726197082</v>
       </c>
-      <c r="I40" t="n">
+      <c r="L40" t="n">
         <v>-518.9527172681155</v>
       </c>
-      <c r="J40" t="n">
+      <c r="M40" t="n">
         <v>2925.970417883297</v>
       </c>
-      <c r="K40" t="n">
+      <c r="N40" t="n">
         <v>-170.3567128192874</v>
       </c>
-      <c r="L40" t="n">
+      <c r="O40" t="n">
         <v>-21.61432344905917</v>
       </c>
-      <c r="M40" t="n">
+      <c r="P40" t="n">
         <v>-6.876587584994091</v>
       </c>
-      <c r="N40" t="n">
+      <c r="Q40" t="n">
         <v>50</v>
       </c>
-      <c r="O40" t="n">
+      <c r="R40" t="n">
         <v>500</v>
       </c>
-      <c r="P40" t="n">
+      <c r="S40" t="n">
         <v>110</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="T40" t="n">
         <v>39</v>
       </c>
-      <c r="R40" t="n">
+      <c r="U40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2714,54 +3080,63 @@
         <v>858.7086793266309</v>
       </c>
       <c r="B41" t="n">
+        <v>30724955.72919594</v>
+      </c>
+      <c r="C41" t="n">
         <v>618.6223754882812</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>-2.071549654006958</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
+        <v>144.9886346880915</v>
+      </c>
+      <c r="F41" t="n">
+        <v>50.81624221801758</v>
+      </c>
+      <c r="G41" t="n">
         <v>171.551109152177</v>
       </c>
-      <c r="E41" t="n">
+      <c r="H41" t="n">
         <v>1218.060113047246</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
         <v>19</v>
       </c>
-      <c r="G41" t="n">
+      <c r="J41" t="n">
         <v>18</v>
       </c>
-      <c r="H41" t="n">
+      <c r="K41" t="n">
         <v>92467.44126889564</v>
       </c>
-      <c r="I41" t="n">
+      <c r="L41" t="n">
         <v>-470.3883926823255</v>
       </c>
-      <c r="J41" t="n">
+      <c r="M41" t="n">
         <v>3202.083588608146</v>
       </c>
-      <c r="K41" t="n">
+      <c r="N41" t="n">
         <v>-164.1921144809986</v>
       </c>
-      <c r="L41" t="n">
+      <c r="O41" t="n">
         <v>-22.71565664132913</v>
       </c>
-      <c r="M41" t="n">
+      <c r="P41" t="n">
         <v>-5.741489721311273</v>
       </c>
-      <c r="N41" t="n">
+      <c r="Q41" t="n">
         <v>50</v>
       </c>
-      <c r="O41" t="n">
+      <c r="R41" t="n">
         <v>500</v>
       </c>
-      <c r="P41" t="n">
+      <c r="S41" t="n">
         <v>110</v>
       </c>
-      <c r="Q41" t="n">
-        <v>40</v>
-      </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
+        <v>40</v>
+      </c>
+      <c r="U41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2770,54 +3145,63 @@
         <v>782.9461382679908</v>
       </c>
       <c r="B42" t="n">
+        <v>22983402.64759653</v>
+      </c>
+      <c r="C42" t="n">
         <v>484.0001525878906</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>-3.903784036636353</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
+        <v>131.8489330228139</v>
+      </c>
+      <c r="F42" t="n">
+        <v>53.00937080383301</v>
+      </c>
+      <c r="G42" t="n">
         <v>142.8898455181025</v>
       </c>
-      <c r="E42" t="n">
+      <c r="H42" t="n">
         <v>961.0698046852767</v>
       </c>
-      <c r="F42" t="n">
+      <c r="I42" t="n">
         <v>31</v>
       </c>
-      <c r="G42" t="n">
+      <c r="J42" t="n">
         <v>30</v>
       </c>
-      <c r="H42" t="n">
+      <c r="K42" t="n">
         <v>91626.55268690852</v>
       </c>
-      <c r="I42" t="n">
+      <c r="L42" t="n">
         <v>-288.6665269446421</v>
       </c>
-      <c r="J42" t="n">
+      <c r="M42" t="n">
         <v>3105.755421326795</v>
       </c>
-      <c r="K42" t="n">
+      <c r="N42" t="n">
         <v>-161.782132680196</v>
       </c>
-      <c r="L42" t="n">
+      <c r="O42" t="n">
         <v>-26.47524267455427</v>
       </c>
-      <c r="M42" t="n">
+      <c r="P42" t="n">
         <v>-6.98600171514275</v>
       </c>
-      <c r="N42" t="n">
+      <c r="Q42" t="n">
         <v>50</v>
       </c>
-      <c r="O42" t="n">
+      <c r="R42" t="n">
         <v>500</v>
       </c>
-      <c r="P42" t="n">
+      <c r="S42" t="n">
         <v>110</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="T42" t="n">
         <v>41</v>
       </c>
-      <c r="R42" t="n">
+      <c r="U42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2826,54 +3210,63 @@
         <v>827.3077437385966</v>
       </c>
       <c r="B43" t="n">
+        <v>25447091.77339498</v>
+      </c>
+      <c r="C43" t="n">
         <v>526.2966918945312</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>-2.107852697372437</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
+        <v>138.2993260618643</v>
+      </c>
+      <c r="F43" t="n">
+        <v>56.04743576049805</v>
+      </c>
+      <c r="G43" t="n">
         <v>151.2124235206799</v>
       </c>
-      <c r="E43" t="n">
+      <c r="H43" t="n">
         <v>1033.358804143004</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="n">
         <v>30</v>
       </c>
-      <c r="G43" t="n">
+      <c r="J43" t="n">
         <v>29</v>
       </c>
-      <c r="H43" t="n">
+      <c r="K43" t="n">
         <v>76141.54834910009</v>
       </c>
-      <c r="I43" t="n">
+      <c r="L43" t="n">
         <v>-307.9321174498436</v>
       </c>
-      <c r="J43" t="n">
+      <c r="M43" t="n">
         <v>2601.995446494841</v>
       </c>
-      <c r="K43" t="n">
+      <c r="N43" t="n">
         <v>-161.6405334819817</v>
       </c>
-      <c r="L43" t="n">
+      <c r="O43" t="n">
         <v>-26.23192649038225</v>
       </c>
-      <c r="M43" t="n">
+      <c r="P43" t="n">
         <v>-6.279363549403919</v>
       </c>
-      <c r="N43" t="n">
+      <c r="Q43" t="n">
         <v>50</v>
       </c>
-      <c r="O43" t="n">
+      <c r="R43" t="n">
         <v>500</v>
       </c>
-      <c r="P43" t="n">
+      <c r="S43" t="n">
         <v>110</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="T43" t="n">
         <v>42</v>
       </c>
-      <c r="R43" t="n">
+      <c r="U43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2882,54 +3275,63 @@
         <v>872.6139701440236</v>
       </c>
       <c r="B44" t="n">
+        <v>27948885.22601061</v>
+      </c>
+      <c r="C44" t="n">
         <v>549.8367309570312</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>-2.046635866165161</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
+        <v>146.2776527819017</v>
+      </c>
+      <c r="F44" t="n">
+        <v>62.63465118408203</v>
+      </c>
+      <c r="G44" t="n">
         <v>156.9940771716591</v>
       </c>
-      <c r="E44" t="n">
+      <c r="H44" t="n">
         <v>1077.922747926433</v>
       </c>
-      <c r="F44" t="n">
+      <c r="I44" t="n">
         <v>26</v>
       </c>
-      <c r="G44" t="n">
+      <c r="J44" t="n">
         <v>27</v>
       </c>
-      <c r="H44" t="n">
+      <c r="K44" t="n">
         <v>76616.28362285582</v>
       </c>
-      <c r="I44" t="n">
+      <c r="L44" t="n">
         <v>-341.744782935777</v>
       </c>
-      <c r="J44" t="n">
+      <c r="M44" t="n">
         <v>2680.807694644552</v>
       </c>
-      <c r="K44" t="n">
+      <c r="N44" t="n">
         <v>-162.1748852492106</v>
       </c>
-      <c r="L44" t="n">
+      <c r="O44" t="n">
         <v>-26.76999807672972</v>
       </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
         <v>-5.928734186752887</v>
       </c>
-      <c r="N44" t="n">
+      <c r="Q44" t="n">
         <v>50</v>
       </c>
-      <c r="O44" t="n">
+      <c r="R44" t="n">
         <v>500</v>
       </c>
-      <c r="P44" t="n">
+      <c r="S44" t="n">
         <v>110</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="T44" t="n">
         <v>43</v>
       </c>
-      <c r="R44" t="n">
+      <c r="U44" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2938,54 +3340,63 @@
         <v>802.1633271908406</v>
       </c>
       <c r="B45" t="n">
+        <v>24181411.95512725</v>
+      </c>
+      <c r="C45" t="n">
         <v>532.8945922851562</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>-2.347737312316895</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
+        <v>133.5095735922348</v>
+      </c>
+      <c r="F45" t="n">
+        <v>52.74742126464844</v>
+      </c>
+      <c r="G45" t="n">
         <v>148.8101801561562</v>
       </c>
-      <c r="E45" t="n">
+      <c r="H45" t="n">
         <v>1046.738692965445</v>
       </c>
-      <c r="F45" t="n">
+      <c r="I45" t="n">
         <v>27</v>
       </c>
-      <c r="G45" t="n">
+      <c r="J45" t="n">
         <v>26</v>
       </c>
-      <c r="H45" t="n">
+      <c r="K45" t="n">
         <v>72412.47699378541</v>
       </c>
-      <c r="I45" t="n">
+      <c r="L45" t="n">
         <v>-337.5018984605013</v>
       </c>
-      <c r="J45" t="n">
+      <c r="M45" t="n">
         <v>2435.960880891028</v>
       </c>
-      <c r="K45" t="n">
+      <c r="N45" t="n">
         <v>-163.8886476788047</v>
       </c>
-      <c r="L45" t="n">
+      <c r="O45" t="n">
         <v>-27.46601648715523</v>
       </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
         <v>-5.590216166388569</v>
       </c>
-      <c r="N45" t="n">
+      <c r="Q45" t="n">
         <v>50</v>
       </c>
-      <c r="O45" t="n">
+      <c r="R45" t="n">
         <v>500</v>
       </c>
-      <c r="P45" t="n">
+      <c r="S45" t="n">
         <v>110</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="T45" t="n">
         <v>44</v>
       </c>
-      <c r="R45" t="n">
+      <c r="U45" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2994,54 +3405,63 @@
         <v>814.3301005204796</v>
       </c>
       <c r="B46" t="n">
+        <v>24978290.16893144</v>
+      </c>
+      <c r="C46" t="n">
         <v>521.1174926757812</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>-2.164086580276489</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
+        <v>136.5027065908662</v>
+      </c>
+      <c r="F46" t="n">
+        <v>54.34226226806641</v>
+      </c>
+      <c r="G46" t="n">
         <v>150.2841032916178</v>
       </c>
-      <c r="E46" t="n">
+      <c r="H46" t="n">
         <v>1022.372904241476</v>
       </c>
-      <c r="F46" t="n">
+      <c r="I46" t="n">
         <v>29</v>
       </c>
-      <c r="G46" t="n">
+      <c r="J46" t="n">
         <v>28</v>
       </c>
-      <c r="H46" t="n">
+      <c r="K46" t="n">
         <v>70951.74951730372</v>
       </c>
-      <c r="I46" t="n">
+      <c r="L46" t="n">
         <v>-307.9669946274407</v>
       </c>
-      <c r="J46" t="n">
+      <c r="M46" t="n">
         <v>2442.599892086602</v>
       </c>
-      <c r="K46" t="n">
+      <c r="N46" t="n">
         <v>-162.6059230099382</v>
       </c>
-      <c r="L46" t="n">
+      <c r="O46" t="n">
         <v>-27.44507953425417</v>
       </c>
-      <c r="M46" t="n">
+      <c r="P46" t="n">
         <v>-6.040776798726259</v>
       </c>
-      <c r="N46" t="n">
+      <c r="Q46" t="n">
         <v>50</v>
       </c>
-      <c r="O46" t="n">
+      <c r="R46" t="n">
         <v>500</v>
       </c>
-      <c r="P46" t="n">
+      <c r="S46" t="n">
         <v>110</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="T46" t="n">
         <v>45</v>
       </c>
-      <c r="R46" t="n">
+      <c r="U46" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3050,54 +3470,63 @@
         <v>789.8109229013487</v>
       </c>
       <c r="B47" t="n">
+        <v>24303968.98792633</v>
+      </c>
+      <c r="C47" t="n">
         <v>561.03369140625</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>-2.46874737739563</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
+        <v>132.350392370072</v>
+      </c>
+      <c r="F47" t="n">
+        <v>50.51300430297852</v>
+      </c>
+      <c r="G47" t="n">
         <v>150.0761848653837</v>
       </c>
-      <c r="E47" t="n">
+      <c r="H47" t="n">
         <v>1104.29686053441</v>
       </c>
-      <c r="F47" t="n">
+      <c r="I47" t="n">
         <v>22</v>
       </c>
-      <c r="G47" t="n">
+      <c r="J47" t="n">
         <v>21</v>
       </c>
-      <c r="H47" t="n">
+      <c r="K47" t="n">
         <v>79550.1547781464</v>
       </c>
-      <c r="I47" t="n">
+      <c r="L47" t="n">
         <v>-505.6175495835487</v>
       </c>
-      <c r="J47" t="n">
+      <c r="M47" t="n">
         <v>2685.838617573056</v>
       </c>
-      <c r="K47" t="n">
+      <c r="N47" t="n">
         <v>-160.476788178716</v>
       </c>
-      <c r="L47" t="n">
+      <c r="O47" t="n">
         <v>-25.57755517652738</v>
       </c>
-      <c r="M47" t="n">
+      <c r="P47" t="n">
         <v>-5.613283242242953</v>
       </c>
-      <c r="N47" t="n">
+      <c r="Q47" t="n">
         <v>50</v>
       </c>
-      <c r="O47" t="n">
+      <c r="R47" t="n">
         <v>500</v>
       </c>
-      <c r="P47" t="n">
+      <c r="S47" t="n">
         <v>110</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="T47" t="n">
         <v>46</v>
       </c>
-      <c r="R47" t="n">
+      <c r="U47" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3106,54 +3535,63 @@
         <v>805.257252416983</v>
       </c>
       <c r="B48" t="n">
+        <v>24723639.38642622</v>
+      </c>
+      <c r="C48" t="n">
         <v>531.6453247070312</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>-2.37905740737915</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
+        <v>134.8970022480797</v>
+      </c>
+      <c r="F48" t="n">
+        <v>52.87554931640625</v>
+      </c>
+      <c r="G48" t="n">
         <v>150.1121944422716</v>
       </c>
-      <c r="E48" t="n">
+      <c r="H48" t="n">
         <v>1044.909149615237</v>
       </c>
-      <c r="F48" t="n">
+      <c r="I48" t="n">
         <v>28</v>
       </c>
-      <c r="G48" t="n">
+      <c r="J48" t="n">
         <v>28</v>
       </c>
-      <c r="H48" t="n">
+      <c r="K48" t="n">
         <v>78419.82663982193</v>
       </c>
-      <c r="I48" t="n">
+      <c r="L48" t="n">
         <v>-338.3495655161387</v>
       </c>
-      <c r="J48" t="n">
+      <c r="M48" t="n">
         <v>2722.722867750013</v>
       </c>
-      <c r="K48" t="n">
+      <c r="N48" t="n">
         <v>-165.4136056324982</v>
       </c>
-      <c r="L48" t="n">
+      <c r="O48" t="n">
         <v>-28.55234645401429</v>
       </c>
-      <c r="M48" t="n">
+      <c r="P48" t="n">
         <v>-5.801166751997982</v>
       </c>
-      <c r="N48" t="n">
+      <c r="Q48" t="n">
         <v>50</v>
       </c>
-      <c r="O48" t="n">
+      <c r="R48" t="n">
         <v>500</v>
       </c>
-      <c r="P48" t="n">
+      <c r="S48" t="n">
         <v>110</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="T48" t="n">
         <v>47</v>
       </c>
-      <c r="R48" t="n">
+      <c r="U48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3162,54 +3600,63 @@
         <v>820.9159556585382</v>
       </c>
       <c r="B49" t="n">
+        <v>25424669.50745727</v>
+      </c>
+      <c r="C49" t="n">
         <v>525.2930297851562</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>-2.187576770782471</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
+        <v>137.5688905904493</v>
+      </c>
+      <c r="F49" t="n">
+        <v>54.75262832641602</v>
+      </c>
+      <c r="G49" t="n">
         <v>151.5274960769258</v>
       </c>
-      <c r="E49" t="n">
+      <c r="H49" t="n">
         <v>1034.682202654706</v>
       </c>
-      <c r="F49" t="n">
+      <c r="I49" t="n">
         <v>34</v>
       </c>
-      <c r="G49" t="n">
+      <c r="J49" t="n">
         <v>34</v>
       </c>
-      <c r="H49" t="n">
+      <c r="K49" t="n">
         <v>75072.04462676434</v>
       </c>
-      <c r="I49" t="n">
+      <c r="L49" t="n">
         <v>-319.2505197813007</v>
       </c>
-      <c r="J49" t="n">
+      <c r="M49" t="n">
         <v>2557.901313865251</v>
       </c>
-      <c r="K49" t="n">
+      <c r="N49" t="n">
         <v>-164.4245115687984</v>
       </c>
-      <c r="L49" t="n">
+      <c r="O49" t="n">
         <v>-25.85760409524929</v>
       </c>
-      <c r="M49" t="n">
+      <c r="P49" t="n">
         <v>-5.73236900356592</v>
       </c>
-      <c r="N49" t="n">
+      <c r="Q49" t="n">
         <v>50</v>
       </c>
-      <c r="O49" t="n">
+      <c r="R49" t="n">
         <v>500</v>
       </c>
-      <c r="P49" t="n">
+      <c r="S49" t="n">
         <v>110</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="T49" t="n">
         <v>48</v>
       </c>
-      <c r="R49" t="n">
+      <c r="U49" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3218,54 +3665,63 @@
         <v>869.9110846316469</v>
       </c>
       <c r="B50" t="n">
+        <v>26580538.52799848</v>
+      </c>
+      <c r="C50" t="n">
         <v>561.0073852539062</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>-2.470170974731445</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
+        <v>145.0850636396871</v>
+      </c>
+      <c r="F50" t="n">
+        <v>65.20469284057617</v>
+      </c>
+      <c r="G50" t="n">
         <v>151.0384027568661</v>
       </c>
-      <c r="E50" t="n">
+      <c r="H50" t="n">
         <v>1094.736472309545</v>
       </c>
-      <c r="F50" t="n">
+      <c r="I50" t="n">
         <v>25</v>
       </c>
-      <c r="G50" t="n">
+      <c r="J50" t="n">
         <v>24</v>
       </c>
-      <c r="H50" t="n">
+      <c r="K50" t="n">
         <v>79824.88455313194</v>
       </c>
-      <c r="I50" t="n">
+      <c r="L50" t="n">
         <v>-463.1645061338932</v>
       </c>
-      <c r="J50" t="n">
+      <c r="M50" t="n">
         <v>2677.264556693744</v>
       </c>
-      <c r="K50" t="n">
+      <c r="N50" t="n">
         <v>-160.786764266604</v>
       </c>
-      <c r="L50" t="n">
+      <c r="O50" t="n">
         <v>-28.31678413719364</v>
       </c>
-      <c r="M50" t="n">
+      <c r="P50" t="n">
         <v>-6.438381167444639</v>
       </c>
-      <c r="N50" t="n">
+      <c r="Q50" t="n">
         <v>50</v>
       </c>
-      <c r="O50" t="n">
+      <c r="R50" t="n">
         <v>500</v>
       </c>
-      <c r="P50" t="n">
+      <c r="S50" t="n">
         <v>110</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="T50" t="n">
         <v>49</v>
       </c>
-      <c r="R50" t="n">
+      <c r="U50" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3274,54 +3730,63 @@
         <v>920.1971255617466</v>
       </c>
       <c r="B51" t="n">
+        <v>28503350.03416756</v>
+      </c>
+      <c r="C51" t="n">
         <v>533.386474609375</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>-2.195406913757324</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
+        <v>153.6940489536001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>74.40251922607422</v>
+      </c>
+      <c r="G51" t="n">
         <v>152.7608666212986</v>
       </c>
-      <c r="E51" t="n">
+      <c r="H51" t="n">
         <v>1034.235417549151</v>
       </c>
-      <c r="F51" t="n">
+      <c r="I51" t="n">
         <v>24</v>
       </c>
-      <c r="G51" t="n">
+      <c r="J51" t="n">
         <v>23</v>
       </c>
-      <c r="H51" t="n">
+      <c r="K51" t="n">
         <v>76585.58296303617</v>
       </c>
-      <c r="I51" t="n">
+      <c r="L51" t="n">
         <v>-314.6829382560682</v>
       </c>
-      <c r="J51" t="n">
+      <c r="M51" t="n">
         <v>2615.97500343709</v>
       </c>
-      <c r="K51" t="n">
+      <c r="N51" t="n">
         <v>-167.4380591968063</v>
       </c>
-      <c r="L51" t="n">
+      <c r="O51" t="n">
         <v>-34.59291563176329</v>
       </c>
-      <c r="M51" t="n">
+      <c r="P51" t="n">
         <v>-7.478241399969475</v>
-      </c>
-      <c r="N51" t="n">
-        <v>50</v>
-      </c>
-      <c r="O51" t="n">
-        <v>500</v>
-      </c>
-      <c r="P51" t="n">
-        <v>110</v>
       </c>
       <c r="Q51" t="n">
         <v>50</v>
       </c>
       <c r="R51" t="n">
+        <v>500</v>
+      </c>
+      <c r="S51" t="n">
+        <v>110</v>
+      </c>
+      <c r="T51" t="n">
+        <v>50</v>
+      </c>
+      <c r="U51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3330,54 +3795,63 @@
         <v>928.1466945848251</v>
       </c>
       <c r="B52" t="n">
+        <v>28617968.83133423</v>
+      </c>
+      <c r="C52" t="n">
         <v>523.9071044921875</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>-2.030263900756836</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
+        <v>155.1426658679995</v>
+      </c>
+      <c r="F52" t="n">
+        <v>75.4965934753418</v>
+      </c>
+      <c r="G52" t="n">
         <v>152.168078900184</v>
       </c>
-      <c r="E52" t="n">
+      <c r="H52" t="n">
         <v>1013.664298845277</v>
       </c>
-      <c r="F52" t="n">
+      <c r="I52" t="n">
         <v>19</v>
       </c>
-      <c r="G52" t="n">
+      <c r="J52" t="n">
         <v>19</v>
       </c>
-      <c r="H52" t="n">
+      <c r="K52" t="n">
         <v>80483.26587131477</v>
       </c>
-      <c r="I52" t="n">
+      <c r="L52" t="n">
         <v>-248.722801073327</v>
       </c>
-      <c r="J52" t="n">
+      <c r="M52" t="n">
         <v>2785.014938279457</v>
       </c>
-      <c r="K52" t="n">
+      <c r="N52" t="n">
         <v>-165.2466711724949</v>
       </c>
-      <c r="L52" t="n">
+      <c r="O52" t="n">
         <v>-33.38640582147411</v>
       </c>
-      <c r="M52" t="n">
+      <c r="P52" t="n">
         <v>-6.397881060609889</v>
       </c>
-      <c r="N52" t="n">
-        <v>40</v>
-      </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
+        <v>40</v>
+      </c>
+      <c r="R52" t="n">
         <v>600</v>
       </c>
-      <c r="P52" t="n">
+      <c r="S52" t="n">
         <v>110</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="T52" t="n">
         <v>51</v>
       </c>
-      <c r="R52" t="n">
+      <c r="U52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3386,54 +3860,63 @@
         <v>916.1098212517509</v>
       </c>
       <c r="B53" t="n">
+        <v>27975613.15419915</v>
+      </c>
+      <c r="C53" t="n">
         <v>530.8182373046875</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>-2.045923948287964</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
+        <v>152.7819264488934</v>
+      </c>
+      <c r="F53" t="n">
+        <v>73.73091506958008</v>
+      </c>
+      <c r="G53" t="n">
         <v>151.0697226210724</v>
       </c>
-      <c r="E53" t="n">
+      <c r="H53" t="n">
         <v>1028.101106917234</v>
       </c>
-      <c r="F53" t="n">
+      <c r="I53" t="n">
         <v>21</v>
       </c>
-      <c r="G53" t="n">
+      <c r="J53" t="n">
         <v>20</v>
       </c>
-      <c r="H53" t="n">
+      <c r="K53" t="n">
         <v>86004.29546632926</v>
       </c>
-      <c r="I53" t="n">
+      <c r="L53" t="n">
         <v>-259.4474909936544</v>
       </c>
-      <c r="J53" t="n">
+      <c r="M53" t="n">
         <v>2812.894065404194</v>
       </c>
-      <c r="K53" t="n">
+      <c r="N53" t="n">
         <v>-161.9526011059165</v>
       </c>
-      <c r="L53" t="n">
+      <c r="O53" t="n">
         <v>-31.12066603402571</v>
       </c>
-      <c r="M53" t="n">
+      <c r="P53" t="n">
         <v>-6.72547245487832</v>
       </c>
-      <c r="N53" t="n">
-        <v>40</v>
-      </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
+        <v>40</v>
+      </c>
+      <c r="R53" t="n">
         <v>600</v>
       </c>
-      <c r="P53" t="n">
+      <c r="S53" t="n">
         <v>110</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="T53" t="n">
         <v>52</v>
       </c>
-      <c r="R53" t="n">
+      <c r="U53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3442,54 +3925,63 @@
         <v>984.574878498471</v>
       </c>
       <c r="B54" t="n">
+        <v>31579779.82303858</v>
+      </c>
+      <c r="C54" t="n">
         <v>551.2703247070312</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>-2.016027212142944</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
+        <v>164.6354767891703</v>
+      </c>
+      <c r="F54" t="n">
+        <v>83.83205413818359</v>
+      </c>
+      <c r="G54" t="n">
         <v>157.8643601196141</v>
       </c>
-      <c r="E54" t="n">
+      <c r="H54" t="n">
         <v>1065.318924472464</v>
       </c>
-      <c r="F54" t="n">
+      <c r="I54" t="n">
         <v>20</v>
       </c>
-      <c r="G54" t="n">
+      <c r="J54" t="n">
         <v>19</v>
       </c>
-      <c r="H54" t="n">
+      <c r="K54" t="n">
         <v>74913.99990511924</v>
       </c>
-      <c r="I54" t="n">
+      <c r="L54" t="n">
         <v>-328.8996203253046</v>
       </c>
-      <c r="J54" t="n">
+      <c r="M54" t="n">
         <v>2599.674173781221</v>
       </c>
-      <c r="K54" t="n">
+      <c r="N54" t="n">
         <v>-166.6398787036883</v>
       </c>
-      <c r="L54" t="n">
+      <c r="O54" t="n">
         <v>-32.42195209093505</v>
       </c>
-      <c r="M54" t="n">
+      <c r="P54" t="n">
         <v>-6.308641405571368</v>
       </c>
-      <c r="N54" t="n">
-        <v>40</v>
-      </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
+        <v>40</v>
+      </c>
+      <c r="R54" t="n">
         <v>600</v>
       </c>
-      <c r="P54" t="n">
+      <c r="S54" t="n">
         <v>110</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="T54" t="n">
         <v>53</v>
       </c>
-      <c r="R54" t="n">
+      <c r="U54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3498,54 +3990,63 @@
         <v>872.3366933631016</v>
       </c>
       <c r="B55" t="n">
+        <v>25896698.37618563</v>
+      </c>
+      <c r="C55" t="n">
         <v>497.2293701171875</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>-3.721557140350342</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
+        <v>146.1597865606816</v>
+      </c>
+      <c r="F55" t="n">
+        <v>69.24749755859375</v>
+      </c>
+      <c r="G55" t="n">
         <v>145.9477331308074</v>
       </c>
-      <c r="E55" t="n">
+      <c r="H55" t="n">
         <v>967.0283700223304</v>
       </c>
-      <c r="F55" t="n">
+      <c r="I55" t="n">
         <v>20</v>
       </c>
-      <c r="G55" t="n">
+      <c r="J55" t="n">
         <v>20</v>
       </c>
-      <c r="H55" t="n">
+      <c r="K55" t="n">
         <v>86173.02669131919</v>
       </c>
-      <c r="I55" t="n">
+      <c r="L55" t="n">
         <v>-210.6990954916728</v>
       </c>
-      <c r="J55" t="n">
+      <c r="M55" t="n">
         <v>2984.358280018625</v>
       </c>
-      <c r="K55" t="n">
+      <c r="N55" t="n">
         <v>-165.9832165252686</v>
       </c>
-      <c r="L55" t="n">
+      <c r="O55" t="n">
         <v>-34.11854813189903</v>
       </c>
-      <c r="M55" t="n">
+      <c r="P55" t="n">
         <v>-6.897789394938943</v>
       </c>
-      <c r="N55" t="n">
-        <v>40</v>
-      </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
+        <v>40</v>
+      </c>
+      <c r="R55" t="n">
         <v>600</v>
       </c>
-      <c r="P55" t="n">
+      <c r="S55" t="n">
         <v>110</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="T55" t="n">
         <v>54</v>
       </c>
-      <c r="R55" t="n">
+      <c r="U55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3554,54 +4055,63 @@
         <v>921.1784631715847</v>
       </c>
       <c r="B56" t="n">
+        <v>28294533.19548743</v>
+      </c>
+      <c r="C56" t="n">
         <v>522.5817260742188</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>-2.148426532745361</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
+        <v>153.9414821702975</v>
+      </c>
+      <c r="F56" t="n">
+        <v>74.91645812988281</v>
+      </c>
+      <c r="G56" t="n">
         <v>151.6333370491133</v>
       </c>
-      <c r="E56" t="n">
+      <c r="H56" t="n">
         <v>1011.476940962315</v>
       </c>
-      <c r="F56" t="n">
+      <c r="I56" t="n">
         <v>23</v>
       </c>
-      <c r="G56" t="n">
+      <c r="J56" t="n">
         <v>23</v>
       </c>
-      <c r="H56" t="n">
+      <c r="K56" t="n">
         <v>77752.4081631038</v>
       </c>
-      <c r="I56" t="n">
+      <c r="L56" t="n">
         <v>-246.3162758187646</v>
       </c>
-      <c r="J56" t="n">
+      <c r="M56" t="n">
         <v>2666.630728584793</v>
       </c>
-      <c r="K56" t="n">
+      <c r="N56" t="n">
         <v>-164.5989986982602</v>
       </c>
-      <c r="L56" t="n">
+      <c r="O56" t="n">
         <v>-31.93401616802608</v>
       </c>
-      <c r="M56" t="n">
+      <c r="P56" t="n">
         <v>-5.895633634808757</v>
       </c>
-      <c r="N56" t="n">
-        <v>40</v>
-      </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
+        <v>40</v>
+      </c>
+      <c r="R56" t="n">
         <v>600</v>
       </c>
-      <c r="P56" t="n">
+      <c r="S56" t="n">
         <v>110</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="T56" t="n">
         <v>55</v>
       </c>
-      <c r="R56" t="n">
+      <c r="U56" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3610,54 +4120,63 @@
         <v>917.5598769580868</v>
       </c>
       <c r="B57" t="n">
+        <v>28046131.26013635</v>
+      </c>
+      <c r="C57" t="n">
         <v>516.6870727539062</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>-2.107140779495239</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
+        <v>153.7222617652752</v>
+      </c>
+      <c r="F57" t="n">
+        <v>75.35423278808594</v>
+      </c>
+      <c r="G57" t="n">
         <v>150.246350513434</v>
       </c>
-      <c r="E57" t="n">
+      <c r="H57" t="n">
         <v>998.3483168405484</v>
       </c>
-      <c r="F57" t="n">
+      <c r="I57" t="n">
         <v>26</v>
       </c>
-      <c r="G57" t="n">
+      <c r="J57" t="n">
         <v>25</v>
       </c>
-      <c r="H57" t="n">
+      <c r="K57" t="n">
         <v>75467.02792402814</v>
       </c>
-      <c r="I57" t="n">
+      <c r="L57" t="n">
         <v>-238.183003466489</v>
       </c>
-      <c r="J57" t="n">
+      <c r="M57" t="n">
         <v>2626.725241890505</v>
       </c>
-      <c r="K57" t="n">
+      <c r="N57" t="n">
         <v>-162.6171815264154</v>
       </c>
-      <c r="L57" t="n">
+      <c r="O57" t="n">
         <v>-29.58119746186206</v>
       </c>
-      <c r="M57" t="n">
+      <c r="P57" t="n">
         <v>-6.918793827737403</v>
       </c>
-      <c r="N57" t="n">
-        <v>40</v>
-      </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
+        <v>40</v>
+      </c>
+      <c r="R57" t="n">
         <v>600</v>
       </c>
-      <c r="P57" t="n">
+      <c r="S57" t="n">
         <v>110</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="T57" t="n">
         <v>56</v>
       </c>
-      <c r="R57" t="n">
+      <c r="U57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3666,54 +4185,63 @@
         <v>924.7527599907241</v>
       </c>
       <c r="B58" t="n">
+        <v>28444720.21143247</v>
+      </c>
+      <c r="C58" t="n">
         <v>520.5017700195312</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>-2.095039844512939</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
+        <v>154.5240291089703</v>
+      </c>
+      <c r="F58" t="n">
+        <v>75.34996032714844</v>
+      </c>
+      <c r="G58" t="n">
         <v>151.6030276372288</v>
       </c>
-      <c r="E58" t="n">
+      <c r="H58" t="n">
         <v>1006.321534080864</v>
       </c>
-      <c r="F58" t="n">
+      <c r="I58" t="n">
         <v>21</v>
       </c>
-      <c r="G58" t="n">
+      <c r="J58" t="n">
         <v>21</v>
       </c>
-      <c r="H58" t="n">
+      <c r="K58" t="n">
         <v>74181.30409253898</v>
       </c>
-      <c r="I58" t="n">
+      <c r="L58" t="n">
         <v>-271.1769489986473</v>
       </c>
-      <c r="J58" t="n">
+      <c r="M58" t="n">
         <v>2555.780611830962</v>
       </c>
-      <c r="K58" t="n">
+      <c r="N58" t="n">
         <v>-165.4183232621454</v>
       </c>
-      <c r="L58" t="n">
+      <c r="O58" t="n">
         <v>-33.1557737761449</v>
       </c>
-      <c r="M58" t="n">
+      <c r="P58" t="n">
         <v>-6.770432464984482</v>
       </c>
-      <c r="N58" t="n">
-        <v>40</v>
-      </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
+        <v>40</v>
+      </c>
+      <c r="R58" t="n">
         <v>600</v>
       </c>
-      <c r="P58" t="n">
+      <c r="S58" t="n">
         <v>110</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="T58" t="n">
         <v>57</v>
       </c>
-      <c r="R58" t="n">
+      <c r="U58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3722,54 +4250,63 @@
         <v>866.3885303036847</v>
       </c>
       <c r="B59" t="n">
+        <v>26423368.07110702</v>
+      </c>
+      <c r="C59" t="n">
         <v>557.8319091796875</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>-2.386175632476807</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
+        <v>144.9822411053345</v>
+      </c>
+      <c r="F59" t="n">
+        <v>65.24562072753906</v>
+      </c>
+      <c r="G59" t="n">
         <v>150.5162393609374</v>
       </c>
-      <c r="E59" t="n">
+      <c r="H59" t="n">
         <v>1088.44338333143</v>
       </c>
-      <c r="F59" t="n">
+      <c r="I59" t="n">
         <v>31</v>
       </c>
-      <c r="G59" t="n">
+      <c r="J59" t="n">
         <v>30</v>
       </c>
-      <c r="H59" t="n">
+      <c r="K59" t="n">
         <v>69170.26902888485</v>
       </c>
-      <c r="I59" t="n">
+      <c r="L59" t="n">
         <v>-475.9502843993141</v>
       </c>
-      <c r="J59" t="n">
+      <c r="M59" t="n">
         <v>2397.27879784545</v>
       </c>
-      <c r="K59" t="n">
+      <c r="N59" t="n">
         <v>-160.1404847342493</v>
       </c>
-      <c r="L59" t="n">
+      <c r="O59" t="n">
         <v>-28.83616889678806</v>
       </c>
-      <c r="M59" t="n">
+      <c r="P59" t="n">
         <v>-6.506618837714919</v>
       </c>
-      <c r="N59" t="n">
-        <v>40</v>
-      </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
+        <v>40</v>
+      </c>
+      <c r="R59" t="n">
         <v>600</v>
       </c>
-      <c r="P59" t="n">
+      <c r="S59" t="n">
         <v>110</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="T59" t="n">
         <v>58</v>
       </c>
-      <c r="R59" t="n">
+      <c r="U59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3778,54 +4315,63 @@
         <v>923.4835521332764</v>
       </c>
       <c r="B60" t="n">
+        <v>28390841.38980583</v>
+      </c>
+      <c r="C60" t="n">
         <v>528.2606201171875</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>-2.264453887939453</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
+        <v>154.2242641844556</v>
+      </c>
+      <c r="F60" t="n">
+        <v>75.13071823120117</v>
+      </c>
+      <c r="G60" t="n">
         <v>151.869844232711</v>
       </c>
-      <c r="E60" t="n">
+      <c r="H60" t="n">
         <v>1021.86613832276</v>
       </c>
-      <c r="F60" t="n">
+      <c r="I60" t="n">
         <v>19</v>
       </c>
-      <c r="G60" t="n">
+      <c r="J60" t="n">
         <v>18</v>
       </c>
-      <c r="H60" t="n">
+      <c r="K60" t="n">
         <v>89697.39656102336</v>
       </c>
-      <c r="I60" t="n">
+      <c r="L60" t="n">
         <v>-264.2507271014874</v>
       </c>
-      <c r="J60" t="n">
+      <c r="M60" t="n">
         <v>2369.669351493194</v>
       </c>
-      <c r="K60" t="n">
+      <c r="N60" t="n">
         <v>-167.1057203286688</v>
       </c>
-      <c r="L60" t="n">
+      <c r="O60" t="n">
         <v>-33.93292141700755</v>
       </c>
-      <c r="M60" t="n">
+      <c r="P60" t="n">
         <v>-7.67131287602723</v>
       </c>
-      <c r="N60" t="n">
-        <v>40</v>
-      </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
+        <v>40</v>
+      </c>
+      <c r="R60" t="n">
         <v>600</v>
       </c>
-      <c r="P60" t="n">
+      <c r="S60" t="n">
         <v>110</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="T60" t="n">
         <v>59</v>
       </c>
-      <c r="R60" t="n">
+      <c r="U60" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3834,54 +4380,63 @@
         <v>909.0001955743901</v>
       </c>
       <c r="B61" t="n">
+        <v>27633920.95062295</v>
+      </c>
+      <c r="C61" t="n">
         <v>517.821044921875</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>-2.094327926635742</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
+        <v>151.813924438128</v>
+      </c>
+      <c r="F61" t="n">
+        <v>73.05183792114258</v>
+      </c>
+      <c r="G61" t="n">
         <v>150.1767690696014</v>
       </c>
-      <c r="E61" t="n">
+      <c r="H61" t="n">
         <v>1002.501277818686</v>
       </c>
-      <c r="F61" t="n">
+      <c r="I61" t="n">
         <v>23</v>
       </c>
-      <c r="G61" t="n">
+      <c r="J61" t="n">
         <v>22</v>
       </c>
-      <c r="H61" t="n">
+      <c r="K61" t="n">
         <v>73212.01267862972</v>
       </c>
-      <c r="I61" t="n">
+      <c r="L61" t="n">
         <v>-236.8956224776011</v>
       </c>
-      <c r="J61" t="n">
+      <c r="M61" t="n">
         <v>2471.641827106688</v>
       </c>
-      <c r="K61" t="n">
+      <c r="N61" t="n">
         <v>-164.1287985853908</v>
       </c>
-      <c r="L61" t="n">
+      <c r="O61" t="n">
         <v>-31.44679940693268</v>
       </c>
-      <c r="M61" t="n">
+      <c r="P61" t="n">
         <v>-7.137450369681384</v>
       </c>
-      <c r="N61" t="n">
-        <v>40</v>
-      </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
+        <v>40</v>
+      </c>
+      <c r="R61" t="n">
         <v>600</v>
       </c>
-      <c r="P61" t="n">
+      <c r="S61" t="n">
         <v>110</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="T61" t="n">
         <v>60</v>
       </c>
-      <c r="R61" t="n">
+      <c r="U61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3890,54 +4445,63 @@
         <v>910.0312208686405</v>
       </c>
       <c r="B62" t="n">
+        <v>27609171.86227402</v>
+      </c>
+      <c r="C62" t="n">
         <v>514.5380859375</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>-2.200389623641968</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
+        <v>152.2717856302999</v>
+      </c>
+      <c r="F62" t="n">
+        <v>74.62033843994141</v>
+      </c>
+      <c r="G62" t="n">
         <v>149.3249332613402</v>
       </c>
-      <c r="E62" t="n">
+      <c r="H62" t="n">
         <v>994.4284826519465</v>
       </c>
-      <c r="F62" t="n">
+      <c r="I62" t="n">
         <v>22</v>
       </c>
-      <c r="G62" t="n">
+      <c r="J62" t="n">
         <v>21</v>
       </c>
-      <c r="H62" t="n">
+      <c r="K62" t="n">
         <v>87003.18380089392</v>
       </c>
-      <c r="I62" t="n">
+      <c r="L62" t="n">
         <v>-246.9684999835736</v>
       </c>
-      <c r="J62" t="n">
+      <c r="M62" t="n">
         <v>2914.113941716378</v>
       </c>
-      <c r="K62" t="n">
+      <c r="N62" t="n">
         <v>-163.966325364728</v>
       </c>
-      <c r="L62" t="n">
+      <c r="O62" t="n">
         <v>-33.3023849577087</v>
       </c>
-      <c r="M62" t="n">
+      <c r="P62" t="n">
         <v>-6.693043439803731</v>
       </c>
-      <c r="N62" t="n">
-        <v>40</v>
-      </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
+        <v>40</v>
+      </c>
+      <c r="R62" t="n">
         <v>600</v>
       </c>
-      <c r="P62" t="n">
+      <c r="S62" t="n">
         <v>110</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="T62" t="n">
         <v>61</v>
       </c>
-      <c r="R62" t="n">
+      <c r="U62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3946,54 +4510,63 @@
         <v>846.6088715951444</v>
       </c>
       <c r="B63" t="n">
+        <v>25211320.12131185</v>
+      </c>
+      <c r="C63" t="n">
         <v>536.3746948242188</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>-2.405395030975342</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
+        <v>141.4387937742393</v>
+      </c>
+      <c r="F63" t="n">
+        <v>63.02046012878418</v>
+      </c>
+      <c r="G63" t="n">
         <v>146.962260800864</v>
       </c>
-      <c r="E63" t="n">
+      <c r="H63" t="n">
         <v>1045.932263715888</v>
       </c>
-      <c r="F63" t="n">
+      <c r="I63" t="n">
         <v>23</v>
       </c>
-      <c r="G63" t="n">
+      <c r="J63" t="n">
         <v>23</v>
       </c>
-      <c r="H63" t="n">
+      <c r="K63" t="n">
         <v>82881.08112637099</v>
       </c>
-      <c r="I63" t="n">
+      <c r="L63" t="n">
         <v>-399.3070646550659</v>
       </c>
-      <c r="J63" t="n">
+      <c r="M63" t="n">
         <v>2768.174759960601</v>
       </c>
-      <c r="K63" t="n">
+      <c r="N63" t="n">
         <v>-162.524590024213</v>
       </c>
-      <c r="L63" t="n">
+      <c r="O63" t="n">
         <v>-27.98100751591881</v>
       </c>
-      <c r="M63" t="n">
+      <c r="P63" t="n">
         <v>-4.935365700703235</v>
       </c>
-      <c r="N63" t="n">
-        <v>40</v>
-      </c>
-      <c r="O63" t="n">
+      <c r="Q63" t="n">
+        <v>40</v>
+      </c>
+      <c r="R63" t="n">
         <v>600</v>
       </c>
-      <c r="P63" t="n">
+      <c r="S63" t="n">
         <v>110</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="T63" t="n">
         <v>62</v>
       </c>
-      <c r="R63" t="n">
+      <c r="U63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4002,54 +4575,63 @@
         <v>928.1501153041952</v>
       </c>
       <c r="B64" t="n">
+        <v>28707292.26049515</v>
+      </c>
+      <c r="C64" t="n">
         <v>532.4205322265625</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>-2.228862762451172</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
+        <v>155.2131779459282</v>
+      </c>
+      <c r="F64" t="n">
+        <v>76.66896820068359</v>
+      </c>
+      <c r="G64" t="n">
         <v>152.3239847987355</v>
       </c>
-      <c r="E64" t="n">
+      <c r="H64" t="n">
         <v>1030.022080023754</v>
       </c>
-      <c r="F64" t="n">
+      <c r="I64" t="n">
         <v>29</v>
       </c>
-      <c r="G64" t="n">
+      <c r="J64" t="n">
         <v>29</v>
       </c>
-      <c r="H64" t="n">
+      <c r="K64" t="n">
         <v>74795.48949777678</v>
       </c>
-      <c r="I64" t="n">
+      <c r="L64" t="n">
         <v>-270.4755451039891</v>
       </c>
-      <c r="J64" t="n">
+      <c r="M64" t="n">
         <v>2532.977478472292</v>
       </c>
-      <c r="K64" t="n">
+      <c r="N64" t="n">
         <v>-167.7683794140775</v>
       </c>
-      <c r="L64" t="n">
+      <c r="O64" t="n">
         <v>-36.02808477416035</v>
       </c>
-      <c r="M64" t="n">
+      <c r="P64" t="n">
         <v>-5.812646482465162</v>
       </c>
-      <c r="N64" t="n">
-        <v>40</v>
-      </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
+        <v>40</v>
+      </c>
+      <c r="R64" t="n">
         <v>600</v>
       </c>
-      <c r="P64" t="n">
+      <c r="S64" t="n">
         <v>110</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="T64" t="n">
         <v>63</v>
       </c>
-      <c r="R64" t="n">
+      <c r="U64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4058,54 +4640,63 @@
         <v>710.185598244337</v>
       </c>
       <c r="B65" t="n">
+        <v>21552718.56780553</v>
+      </c>
+      <c r="C65" t="n">
         <v>517.6110229492188</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>-2.191135883331299</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
+        <v>119.4976928434565</v>
+      </c>
+      <c r="F65" t="n">
+        <v>38.98110389709473</v>
+      </c>
+      <c r="G65" t="n">
         <v>145.8966880919137</v>
       </c>
-      <c r="E65" t="n">
+      <c r="H65" t="n">
         <v>1024.938044196965</v>
       </c>
-      <c r="F65" t="n">
+      <c r="I65" t="n">
         <v>30</v>
       </c>
-      <c r="G65" t="n">
+      <c r="J65" t="n">
         <v>29</v>
       </c>
-      <c r="H65" t="n">
+      <c r="K65" t="n">
         <v>73281.13222411886</v>
       </c>
-      <c r="I65" t="n">
+      <c r="L65" t="n">
         <v>-371.1735388369962</v>
       </c>
-      <c r="J65" t="n">
+      <c r="M65" t="n">
         <v>2425.180547496585</v>
       </c>
-      <c r="K65" t="n">
+      <c r="N65" t="n">
         <v>-157.6790304233047</v>
       </c>
-      <c r="L65" t="n">
+      <c r="O65" t="n">
         <v>-18.73947285544841</v>
       </c>
-      <c r="M65" t="n">
+      <c r="P65" t="n">
         <v>-5.140378089283248</v>
       </c>
-      <c r="N65" t="n">
-        <v>40</v>
-      </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
+        <v>40</v>
+      </c>
+      <c r="R65" t="n">
         <v>600</v>
       </c>
-      <c r="P65" t="n">
+      <c r="S65" t="n">
         <v>110</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="T65" t="n">
         <v>64</v>
       </c>
-      <c r="R65" t="n">
+      <c r="U65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4114,54 +4705,63 @@
         <v>685.1026059313059</v>
       </c>
       <c r="B66" t="n">
+        <v>20738232.51565635</v>
+      </c>
+      <c r="C66" t="n">
         <v>535.6337280273438</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>-2.480136394500732</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
+        <v>115.2864470096179</v>
+      </c>
+      <c r="F66" t="n">
+        <v>35.91207504272461</v>
+      </c>
+      <c r="G66" t="n">
         <v>144.4789356231283</v>
       </c>
-      <c r="E66" t="n">
+      <c r="H66" t="n">
         <v>1064.416151831542</v>
       </c>
-      <c r="F66" t="n">
+      <c r="I66" t="n">
         <v>31</v>
       </c>
-      <c r="G66" t="n">
+      <c r="J66" t="n">
         <v>31</v>
       </c>
-      <c r="H66" t="n">
+      <c r="K66" t="n">
         <v>84800.88894754565</v>
       </c>
-      <c r="I66" t="n">
+      <c r="L66" t="n">
         <v>-462.7296364389658</v>
       </c>
-      <c r="J66" t="n">
+      <c r="M66" t="n">
         <v>2784.719783968805</v>
       </c>
-      <c r="K66" t="n">
+      <c r="N66" t="n">
         <v>-155.6249852862614</v>
       </c>
-      <c r="L66" t="n">
+      <c r="O66" t="n">
         <v>-19.70804937775245</v>
       </c>
-      <c r="M66" t="n">
+      <c r="P66" t="n">
         <v>-5.095688878317741</v>
       </c>
-      <c r="N66" t="n">
-        <v>40</v>
-      </c>
-      <c r="O66" t="n">
+      <c r="Q66" t="n">
+        <v>40</v>
+      </c>
+      <c r="R66" t="n">
         <v>600</v>
       </c>
-      <c r="P66" t="n">
+      <c r="S66" t="n">
         <v>110</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="T66" t="n">
         <v>65</v>
       </c>
-      <c r="R66" t="n">
+      <c r="U66" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4170,54 +4770,63 @@
         <v>716.6163310656149</v>
       </c>
       <c r="B67" t="n">
+        <v>22000943.77972386</v>
+      </c>
+      <c r="C67" t="n">
         <v>526.762939453125</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>-2.063719511032104</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
+        <v>120.505487948742</v>
+      </c>
+      <c r="F67" t="n">
+        <v>38.97932434082031</v>
+      </c>
+      <c r="G67" t="n">
         <v>147.3899734601419</v>
       </c>
-      <c r="E67" t="n">
+      <c r="H67" t="n">
         <v>1044.938610850751</v>
       </c>
-      <c r="F67" t="n">
+      <c r="I67" t="n">
         <v>27</v>
       </c>
-      <c r="G67" t="n">
+      <c r="J67" t="n">
         <v>26</v>
       </c>
-      <c r="H67" t="n">
+      <c r="K67" t="n">
         <v>76144.66492354179</v>
       </c>
-      <c r="I67" t="n">
+      <c r="L67" t="n">
         <v>-392.5392573741628</v>
       </c>
-      <c r="J67" t="n">
+      <c r="M67" t="n">
         <v>2552.784103066287</v>
       </c>
-      <c r="K67" t="n">
+      <c r="N67" t="n">
         <v>-158.4864708440809</v>
       </c>
-      <c r="L67" t="n">
+      <c r="O67" t="n">
         <v>-20.76802826103562</v>
       </c>
-      <c r="M67" t="n">
+      <c r="P67" t="n">
         <v>-7.897725360493538</v>
       </c>
-      <c r="N67" t="n">
-        <v>40</v>
-      </c>
-      <c r="O67" t="n">
+      <c r="Q67" t="n">
+        <v>40</v>
+      </c>
+      <c r="R67" t="n">
         <v>600</v>
       </c>
-      <c r="P67" t="n">
+      <c r="S67" t="n">
         <v>110</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="T67" t="n">
         <v>66</v>
       </c>
-      <c r="R67" t="n">
+      <c r="U67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4226,54 +4835,63 @@
         <v>742.132903749963</v>
       </c>
       <c r="B68" t="n">
+        <v>22972184.01954222</v>
+      </c>
+      <c r="C68" t="n">
         <v>527.97802734375</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>-1.969046831130981</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
+        <v>124.3509400026725</v>
+      </c>
+      <c r="F68" t="n">
+        <v>41.96364593505859</v>
+      </c>
+      <c r="G68" t="n">
         <v>149.8156805616107</v>
       </c>
-      <c r="E68" t="n">
+      <c r="H68" t="n">
         <v>1045.412759240156</v>
       </c>
-      <c r="F68" t="n">
+      <c r="I68" t="n">
         <v>33</v>
       </c>
-      <c r="G68" t="n">
+      <c r="J68" t="n">
         <v>32</v>
       </c>
-      <c r="H68" t="n">
+      <c r="K68" t="n">
         <v>72264.62475277821</v>
       </c>
-      <c r="I68" t="n">
+      <c r="L68" t="n">
         <v>-363.7414125422947</v>
       </c>
-      <c r="J68" t="n">
+      <c r="M68" t="n">
         <v>2391.90735995811</v>
       </c>
-      <c r="K68" t="n">
+      <c r="N68" t="n">
         <v>-161.3065478823635</v>
       </c>
-      <c r="L68" t="n">
+      <c r="O68" t="n">
         <v>-21.33663217779648</v>
       </c>
-      <c r="M68" t="n">
+      <c r="P68" t="n">
         <v>-5.623560517499254</v>
       </c>
-      <c r="N68" t="n">
-        <v>40</v>
-      </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
+        <v>40</v>
+      </c>
+      <c r="R68" t="n">
         <v>600</v>
       </c>
-      <c r="P68" t="n">
+      <c r="S68" t="n">
         <v>110</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="T68" t="n">
         <v>67</v>
       </c>
-      <c r="R68" t="n">
+      <c r="U68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4282,54 +4900,63 @@
         <v>743.092003050401</v>
       </c>
       <c r="B69" t="n">
+        <v>22969594.64190713</v>
+      </c>
+      <c r="C69" t="n">
         <v>525.9749755859375</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>-2.001079082489014</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
+        <v>124.2859916176752</v>
+      </c>
+      <c r="F69" t="n">
+        <v>42.05084419250488</v>
+      </c>
+      <c r="G69" t="n">
         <v>149.8553095786401</v>
       </c>
-      <c r="E69" t="n">
+      <c r="H69" t="n">
         <v>1042.103121673774</v>
       </c>
-      <c r="F69" t="n">
+      <c r="I69" t="n">
         <v>26</v>
       </c>
-      <c r="G69" t="n">
+      <c r="J69" t="n">
         <v>25</v>
       </c>
-      <c r="H69" t="n">
+      <c r="K69" t="n">
         <v>81531.7207225194</v>
       </c>
-      <c r="I69" t="n">
+      <c r="L69" t="n">
         <v>-353.2148677074274</v>
       </c>
-      <c r="J69" t="n">
+      <c r="M69" t="n">
         <v>2675.093870793098</v>
       </c>
-      <c r="K69" t="n">
+      <c r="N69" t="n">
         <v>-156.7966700046278</v>
       </c>
-      <c r="L69" t="n">
+      <c r="O69" t="n">
         <v>-23.17201158705891</v>
       </c>
-      <c r="M69" t="n">
+      <c r="P69" t="n">
         <v>-5.594638817549619</v>
       </c>
-      <c r="N69" t="n">
-        <v>40</v>
-      </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
+        <v>40</v>
+      </c>
+      <c r="R69" t="n">
         <v>600</v>
       </c>
-      <c r="P69" t="n">
+      <c r="S69" t="n">
         <v>110</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="T69" t="n">
         <v>68</v>
       </c>
-      <c r="R69" t="n">
+      <c r="U69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4338,54 +4965,63 @@
         <v>736.7003766568316</v>
       </c>
       <c r="B70" t="n">
+        <v>22582096.92101537</v>
+      </c>
+      <c r="C70" t="n">
         <v>518.951416015625</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>-2.070837736129761</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
+        <v>123.5602639615782</v>
+      </c>
+      <c r="F70" t="n">
+        <v>41.49633407592773</v>
+      </c>
+      <c r="G70" t="n">
         <v>148.5215176480542</v>
       </c>
-      <c r="E70" t="n">
+      <c r="H70" t="n">
         <v>1028.561815890071</v>
       </c>
-      <c r="F70" t="n">
+      <c r="I70" t="n">
         <v>24</v>
       </c>
-      <c r="G70" t="n">
+      <c r="J70" t="n">
         <v>24</v>
       </c>
-      <c r="H70" t="n">
+      <c r="K70" t="n">
         <v>75203.62492648963</v>
       </c>
-      <c r="I70" t="n">
+      <c r="L70" t="n">
         <v>-377.6858029764844</v>
       </c>
-      <c r="J70" t="n">
+      <c r="M70" t="n">
         <v>2504.739093441684</v>
       </c>
-      <c r="K70" t="n">
+      <c r="N70" t="n">
         <v>-158.7774503717836</v>
       </c>
-      <c r="L70" t="n">
+      <c r="O70" t="n">
         <v>-23.82097413404076</v>
       </c>
-      <c r="M70" t="n">
+      <c r="P70" t="n">
         <v>-4.963729174285862</v>
       </c>
-      <c r="N70" t="n">
-        <v>40</v>
-      </c>
-      <c r="O70" t="n">
+      <c r="Q70" t="n">
+        <v>40</v>
+      </c>
+      <c r="R70" t="n">
         <v>600</v>
       </c>
-      <c r="P70" t="n">
+      <c r="S70" t="n">
         <v>110</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="T70" t="n">
         <v>69</v>
       </c>
-      <c r="R70" t="n">
+      <c r="U70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4394,54 +5030,63 @@
         <v>726.6176390966311</v>
       </c>
       <c r="B71" t="n">
+        <v>22272463.81122516</v>
+      </c>
+      <c r="C71" t="n">
         <v>542.5632934570312</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>-2.386175632476807</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
+        <v>121.8226232454058</v>
+      </c>
+      <c r="F71" t="n">
+        <v>40.0612964630127</v>
+      </c>
+      <c r="G71" t="n">
         <v>148.0286765400228</v>
       </c>
-      <c r="E71" t="n">
+      <c r="H71" t="n">
         <v>1076.941733268665</v>
       </c>
-      <c r="F71" t="n">
+      <c r="I71" t="n">
         <v>29</v>
       </c>
-      <c r="G71" t="n">
+      <c r="J71" t="n">
         <v>28</v>
       </c>
-      <c r="H71" t="n">
+      <c r="K71" t="n">
         <v>82290.77910287076</v>
       </c>
-      <c r="I71" t="n">
+      <c r="L71" t="n">
         <v>-422.9014051133418</v>
       </c>
-      <c r="J71" t="n">
+      <c r="M71" t="n">
         <v>2738.22539890076</v>
       </c>
-      <c r="K71" t="n">
+      <c r="N71" t="n">
         <v>-158.615209692158</v>
       </c>
-      <c r="L71" t="n">
+      <c r="O71" t="n">
         <v>-24.29412217153774</v>
       </c>
-      <c r="M71" t="n">
+      <c r="P71" t="n">
         <v>-4.270617943632699</v>
       </c>
-      <c r="N71" t="n">
-        <v>40</v>
-      </c>
-      <c r="O71" t="n">
+      <c r="Q71" t="n">
+        <v>40</v>
+      </c>
+      <c r="R71" t="n">
         <v>600</v>
       </c>
-      <c r="P71" t="n">
+      <c r="S71" t="n">
         <v>110</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="T71" t="n">
         <v>70</v>
       </c>
-      <c r="R71" t="n">
+      <c r="U71" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4450,54 +5095,63 @@
         <v>725.3101592784972</v>
       </c>
       <c r="B72" t="n">
+        <v>21863223.54915777</v>
+      </c>
+      <c r="C72" t="n">
         <v>512.2481689453125</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>-2.171916723251343</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
+        <v>121.4295368165273</v>
+      </c>
+      <c r="F72" t="n">
+        <v>40.05275535583496</v>
+      </c>
+      <c r="G72" t="n">
         <v>146.0575031872682</v>
       </c>
-      <c r="E72" t="n">
+      <c r="H72" t="n">
         <v>1016.043760879162</v>
       </c>
-      <c r="F72" t="n">
+      <c r="I72" t="n">
         <v>31</v>
       </c>
-      <c r="G72" t="n">
+      <c r="J72" t="n">
         <v>31</v>
       </c>
-      <c r="H72" t="n">
+      <c r="K72" t="n">
         <v>82523.79607348566</v>
       </c>
-      <c r="I72" t="n">
+      <c r="L72" t="n">
         <v>-351.0489321392452</v>
       </c>
-      <c r="J72" t="n">
+      <c r="M72" t="n">
         <v>2842.929918709853</v>
       </c>
-      <c r="K72" t="n">
+      <c r="N72" t="n">
         <v>-159.041853170265</v>
       </c>
-      <c r="L72" t="n">
+      <c r="O72" t="n">
         <v>-23.84454447227461</v>
       </c>
-      <c r="M72" t="n">
+      <c r="P72" t="n">
         <v>-5.435070780431967</v>
       </c>
-      <c r="N72" t="n">
-        <v>40</v>
-      </c>
-      <c r="O72" t="n">
+      <c r="Q72" t="n">
+        <v>40</v>
+      </c>
+      <c r="R72" t="n">
         <v>600</v>
       </c>
-      <c r="P72" t="n">
+      <c r="S72" t="n">
         <v>110</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="T72" t="n">
         <v>71</v>
       </c>
-      <c r="R72" t="n">
+      <c r="U72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4506,54 +5160,63 @@
         <v>717.3263598011129</v>
       </c>
       <c r="B73" t="n">
+        <v>21718732.72117079</v>
+      </c>
+      <c r="C73" t="n">
         <v>528.0406494140625</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>-2.270860195159912</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
+        <v>120.4144971575619</v>
+      </c>
+      <c r="F73" t="n">
+        <v>39.25907135009766</v>
+      </c>
+      <c r="G73" t="n">
         <v>145.8793959674167</v>
       </c>
-      <c r="E73" t="n">
+      <c r="H73" t="n">
         <v>1048.190907238775</v>
       </c>
-      <c r="F73" t="n">
+      <c r="I73" t="n">
         <v>32</v>
       </c>
-      <c r="G73" t="n">
+      <c r="J73" t="n">
         <v>32</v>
       </c>
-      <c r="H73" t="n">
+      <c r="K73" t="n">
         <v>81761.24291329531</v>
       </c>
-      <c r="I73" t="n">
+      <c r="L73" t="n">
         <v>-386.2926813636659</v>
       </c>
-      <c r="J73" t="n">
+      <c r="M73" t="n">
         <v>2746.891058149256</v>
       </c>
-      <c r="K73" t="n">
+      <c r="N73" t="n">
         <v>-159.8997908130979</v>
       </c>
-      <c r="L73" t="n">
+      <c r="O73" t="n">
         <v>-23.13147575079262</v>
       </c>
-      <c r="M73" t="n">
+      <c r="P73" t="n">
         <v>-5.116366291207343</v>
       </c>
-      <c r="N73" t="n">
-        <v>40</v>
-      </c>
-      <c r="O73" t="n">
+      <c r="Q73" t="n">
+        <v>40</v>
+      </c>
+      <c r="R73" t="n">
         <v>600</v>
       </c>
-      <c r="P73" t="n">
+      <c r="S73" t="n">
         <v>110</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="T73" t="n">
         <v>72</v>
       </c>
-      <c r="R73" t="n">
+      <c r="U73" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4562,54 +5225,63 @@
         <v>724.293551172801</v>
       </c>
       <c r="B74" t="n">
+        <v>21781802.30843276</v>
+      </c>
+      <c r="C74" t="n">
         <v>511.9136047363281</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>-2.078667879104614</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
+        <v>121.371678591857</v>
+      </c>
+      <c r="F74" t="n">
+        <v>39.48685646057129</v>
+      </c>
+      <c r="G74" t="n">
         <v>146.0530802111358</v>
       </c>
-      <c r="E74" t="n">
+      <c r="H74" t="n">
         <v>1015.79356186785</v>
       </c>
-      <c r="F74" t="n">
+      <c r="I74" t="n">
         <v>29</v>
       </c>
-      <c r="G74" t="n">
+      <c r="J74" t="n">
         <v>29</v>
       </c>
-      <c r="H74" t="n">
+      <c r="K74" t="n">
         <v>79127.40857246856</v>
       </c>
-      <c r="I74" t="n">
+      <c r="L74" t="n">
         <v>-347.5126510579321</v>
       </c>
-      <c r="J74" t="n">
+      <c r="M74" t="n">
         <v>2726.376719871422</v>
       </c>
-      <c r="K74" t="n">
+      <c r="N74" t="n">
         <v>-157.8880576614093</v>
       </c>
-      <c r="L74" t="n">
+      <c r="O74" t="n">
         <v>-23.55189138775575</v>
       </c>
-      <c r="M74" t="n">
+      <c r="P74" t="n">
         <v>-3.652946338470608</v>
       </c>
-      <c r="N74" t="n">
-        <v>40</v>
-      </c>
-      <c r="O74" t="n">
+      <c r="Q74" t="n">
+        <v>40</v>
+      </c>
+      <c r="R74" t="n">
         <v>600</v>
       </c>
-      <c r="P74" t="n">
+      <c r="S74" t="n">
         <v>110</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="T74" t="n">
         <v>73</v>
       </c>
-      <c r="R74" t="n">
+      <c r="U74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4618,54 +5290,63 @@
         <v>718.2337168669214</v>
       </c>
       <c r="B75" t="n">
+        <v>21837208.64082985</v>
+      </c>
+      <c r="C75" t="n">
         <v>530.012451171875</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>-2.387599468231201</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
+        <v>120.5917746383641</v>
+      </c>
+      <c r="F75" t="n">
+        <v>38.65615653991699</v>
+      </c>
+      <c r="G75" t="n">
         <v>146.6036208513111</v>
       </c>
-      <c r="E75" t="n">
+      <c r="H75" t="n">
         <v>1052.836325105262</v>
       </c>
-      <c r="F75" t="n">
+      <c r="I75" t="n">
         <v>27</v>
       </c>
-      <c r="G75" t="n">
+      <c r="J75" t="n">
         <v>27</v>
       </c>
-      <c r="H75" t="n">
+      <c r="K75" t="n">
         <v>86305.37282619457</v>
       </c>
-      <c r="I75" t="n">
+      <c r="L75" t="n">
         <v>-373.8621143104247</v>
       </c>
-      <c r="J75" t="n">
+      <c r="M75" t="n">
         <v>2811.624106185095</v>
       </c>
-      <c r="K75" t="n">
+      <c r="N75" t="n">
         <v>-158.2622629239379</v>
       </c>
-      <c r="L75" t="n">
+      <c r="O75" t="n">
         <v>-24.04486569777482</v>
       </c>
-      <c r="M75" t="n">
+      <c r="P75" t="n">
         <v>-5.884564729999317</v>
       </c>
-      <c r="N75" t="n">
-        <v>40</v>
-      </c>
-      <c r="O75" t="n">
+      <c r="Q75" t="n">
+        <v>40</v>
+      </c>
+      <c r="R75" t="n">
         <v>600</v>
       </c>
-      <c r="P75" t="n">
+      <c r="S75" t="n">
         <v>110</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="T75" t="n">
         <v>74</v>
       </c>
-      <c r="R75" t="n">
+      <c r="U75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4674,54 +5355,63 @@
         <v>720.970604828934</v>
       </c>
       <c r="B76" t="n">
+        <v>21778574.18173547</v>
+      </c>
+      <c r="C76" t="n">
         <v>523.633056640625</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>-2.413224935531616</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
+        <v>120.8664398730207</v>
+      </c>
+      <c r="F76" t="n">
+        <v>39.05976104736328</v>
+      </c>
+      <c r="G76" t="n">
         <v>146.0463794019126</v>
       </c>
-      <c r="E76" t="n">
+      <c r="H76" t="n">
         <v>1039.233015453963</v>
       </c>
-      <c r="F76" t="n">
+      <c r="I76" t="n">
         <v>32</v>
       </c>
-      <c r="G76" t="n">
+      <c r="J76" t="n">
         <v>32</v>
       </c>
-      <c r="H76" t="n">
+      <c r="K76" t="n">
         <v>78059.79527392179</v>
       </c>
-      <c r="I76" t="n">
+      <c r="L76" t="n">
         <v>-359.6428406418636</v>
       </c>
-      <c r="J76" t="n">
+      <c r="M76" t="n">
         <v>2719.114695339426</v>
       </c>
-      <c r="K76" t="n">
+      <c r="N76" t="n">
         <v>-160.0824536409015</v>
       </c>
-      <c r="L76" t="n">
+      <c r="O76" t="n">
         <v>-24.84722293561405</v>
       </c>
-      <c r="M76" t="n">
+      <c r="P76" t="n">
         <v>-5.122412342235491</v>
       </c>
-      <c r="N76" t="n">
-        <v>40</v>
-      </c>
-      <c r="O76" t="n">
+      <c r="Q76" t="n">
+        <v>40</v>
+      </c>
+      <c r="R76" t="n">
         <v>600</v>
       </c>
-      <c r="P76" t="n">
+      <c r="S76" t="n">
         <v>110</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="T76" t="n">
         <v>75</v>
       </c>
-      <c r="R76" t="n">
+      <c r="U76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4730,54 +5420,63 @@
         <v>719.5059558148409</v>
       </c>
       <c r="B77" t="n">
+        <v>21614653.92538325</v>
+      </c>
+      <c r="C77" t="n">
         <v>513.4176635742188</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>-2.369091987609863</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
+        <v>120.9050297763021</v>
+      </c>
+      <c r="F77" t="n">
+        <v>39.56159591674805</v>
+      </c>
+      <c r="G77" t="n">
         <v>144.8825690856091</v>
       </c>
-      <c r="E77" t="n">
+      <c r="H77" t="n">
         <v>1018.250272705893</v>
       </c>
-      <c r="F77" t="n">
+      <c r="I77" t="n">
         <v>27</v>
       </c>
-      <c r="G77" t="n">
+      <c r="J77" t="n">
         <v>27</v>
       </c>
-      <c r="H77" t="n">
+      <c r="K77" t="n">
         <v>81346.94564246488</v>
       </c>
-      <c r="I77" t="n">
+      <c r="L77" t="n">
         <v>-330.5986529923157</v>
       </c>
-      <c r="J77" t="n">
+      <c r="M77" t="n">
         <v>2695.35690410677</v>
       </c>
-      <c r="K77" t="n">
+      <c r="N77" t="n">
         <v>-159.8657194297134</v>
       </c>
-      <c r="L77" t="n">
+      <c r="O77" t="n">
         <v>-24.47777834254543</v>
       </c>
-      <c r="M77" t="n">
+      <c r="P77" t="n">
         <v>-4.846576932159455</v>
       </c>
-      <c r="N77" t="n">
-        <v>40</v>
-      </c>
-      <c r="O77" t="n">
+      <c r="Q77" t="n">
+        <v>40</v>
+      </c>
+      <c r="R77" t="n">
         <v>500</v>
       </c>
-      <c r="P77" t="n">
+      <c r="S77" t="n">
         <v>120</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="T77" t="n">
         <v>76</v>
       </c>
-      <c r="R77" t="n">
+      <c r="U77" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4786,54 +5485,63 @@
         <v>706.5768055529031</v>
       </c>
       <c r="B78" t="n">
+        <v>20592715.21965339</v>
+      </c>
+      <c r="C78" t="n">
         <v>487.8838500976562</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>-2.305739641189575</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
+        <v>118.3547884359827</v>
+      </c>
+      <c r="F78" t="n">
+        <v>38.06925773620605</v>
+      </c>
+      <c r="G78" t="n">
         <v>141.3277124435505</v>
       </c>
-      <c r="E78" t="n">
+      <c r="H78" t="n">
         <v>967.9682955772063</v>
       </c>
-      <c r="F78" t="n">
+      <c r="I78" t="n">
         <v>26</v>
       </c>
-      <c r="G78" t="n">
+      <c r="J78" t="n">
         <v>25</v>
       </c>
-      <c r="H78" t="n">
+      <c r="K78" t="n">
         <v>78232.34247519358</v>
       </c>
-      <c r="I78" t="n">
+      <c r="L78" t="n">
         <v>-303.6513229989141</v>
       </c>
-      <c r="J78" t="n">
+      <c r="M78" t="n">
         <v>2079.621839131336</v>
       </c>
-      <c r="K78" t="n">
+      <c r="N78" t="n">
         <v>-156.500450485197</v>
       </c>
-      <c r="L78" t="n">
+      <c r="O78" t="n">
         <v>-24.51132656856452</v>
       </c>
-      <c r="M78" t="n">
+      <c r="P78" t="n">
         <v>-5.698984872709532</v>
       </c>
-      <c r="N78" t="n">
-        <v>40</v>
-      </c>
-      <c r="O78" t="n">
+      <c r="Q78" t="n">
+        <v>40</v>
+      </c>
+      <c r="R78" t="n">
         <v>500</v>
       </c>
-      <c r="P78" t="n">
+      <c r="S78" t="n">
         <v>120</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="T78" t="n">
         <v>77</v>
       </c>
-      <c r="R78" t="n">
+      <c r="U78" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4842,54 +5550,63 @@
         <v>708.9779343985159</v>
       </c>
       <c r="B79" t="n">
+        <v>20781825.36813116</v>
+      </c>
+      <c r="C79" t="n">
         <v>493.3890991210938</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>-2.332788944244385</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
+        <v>118.9128005333349</v>
+      </c>
+      <c r="F79" t="n">
+        <v>38.81062316894531</v>
+      </c>
+      <c r="G79" t="n">
         <v>141.7627964686649</v>
       </c>
-      <c r="E79" t="n">
+      <c r="H79" t="n">
         <v>979.5138848164991</v>
       </c>
-      <c r="F79" t="n">
+      <c r="I79" t="n">
         <v>30</v>
       </c>
-      <c r="G79" t="n">
+      <c r="J79" t="n">
         <v>30</v>
       </c>
-      <c r="H79" t="n">
+      <c r="K79" t="n">
         <v>76500.31912337136</v>
       </c>
-      <c r="I79" t="n">
+      <c r="L79" t="n">
         <v>-335.8953256416135</v>
       </c>
-      <c r="J79" t="n">
+      <c r="M79" t="n">
         <v>2531.65531417461</v>
       </c>
-      <c r="K79" t="n">
+      <c r="N79" t="n">
         <v>-156.9345318859005</v>
       </c>
-      <c r="L79" t="n">
+      <c r="O79" t="n">
         <v>-25.67464996918499</v>
       </c>
-      <c r="M79" t="n">
+      <c r="P79" t="n">
         <v>-4.703554813215522</v>
       </c>
-      <c r="N79" t="n">
-        <v>40</v>
-      </c>
-      <c r="O79" t="n">
+      <c r="Q79" t="n">
+        <v>40</v>
+      </c>
+      <c r="R79" t="n">
         <v>500</v>
       </c>
-      <c r="P79" t="n">
+      <c r="S79" t="n">
         <v>120</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="T79" t="n">
         <v>78</v>
       </c>
-      <c r="R79" t="n">
+      <c r="U79" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4898,54 +5615,63 @@
         <v>711.3918517605802</v>
       </c>
       <c r="B80" t="n">
+        <v>20832240.15536121</v>
+      </c>
+      <c r="C80" t="n">
         <v>495.8890075683594</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>-2.354855537414551</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
+        <v>119.0322272551458</v>
+      </c>
+      <c r="F80" t="n">
+        <v>38.51770782470704</v>
+      </c>
+      <c r="G80" t="n">
         <v>142.1547142884023</v>
       </c>
-      <c r="E80" t="n">
+      <c r="H80" t="n">
         <v>984.3457161510007</v>
       </c>
-      <c r="F80" t="n">
+      <c r="I80" t="n">
         <v>25</v>
       </c>
-      <c r="G80" t="n">
+      <c r="J80" t="n">
         <v>24</v>
       </c>
-      <c r="H80" t="n">
+      <c r="K80" t="n">
         <v>80423.88783655543</v>
       </c>
-      <c r="I80" t="n">
+      <c r="L80" t="n">
         <v>-314.474778107342</v>
       </c>
-      <c r="J80" t="n">
+      <c r="M80" t="n">
         <v>2558.167731612985</v>
       </c>
-      <c r="K80" t="n">
+      <c r="N80" t="n">
         <v>-157.5255213752457</v>
       </c>
-      <c r="L80" t="n">
+      <c r="O80" t="n">
         <v>-25.68855896128916</v>
       </c>
-      <c r="M80" t="n">
+      <c r="P80" t="n">
         <v>-5.342560990312762</v>
       </c>
-      <c r="N80" t="n">
-        <v>40</v>
-      </c>
-      <c r="O80" t="n">
+      <c r="Q80" t="n">
+        <v>40</v>
+      </c>
+      <c r="R80" t="n">
         <v>500</v>
       </c>
-      <c r="P80" t="n">
+      <c r="S80" t="n">
         <v>120</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="T80" t="n">
         <v>79</v>
       </c>
-      <c r="R80" t="n">
+      <c r="U80" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4954,54 +5680,63 @@
         <v>710.0241582231512</v>
       </c>
       <c r="B81" t="n">
+        <v>20884871.60599872</v>
+      </c>
+      <c r="C81" t="n">
         <v>493.5877075195312</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>-2.302180528640747</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
+        <v>119.3956414959962</v>
+      </c>
+      <c r="F81" t="n">
+        <v>39.01989936828613</v>
+      </c>
+      <c r="G81" t="n">
         <v>142.1554265236022</v>
       </c>
-      <c r="E81" t="n">
+      <c r="H81" t="n">
         <v>979.368692842973</v>
       </c>
-      <c r="F81" t="n">
+      <c r="I81" t="n">
         <v>25</v>
       </c>
-      <c r="G81" t="n">
+      <c r="J81" t="n">
         <v>24</v>
       </c>
-      <c r="H81" t="n">
+      <c r="K81" t="n">
         <v>77224.39775502277</v>
       </c>
-      <c r="I81" t="n">
+      <c r="L81" t="n">
         <v>-299.8679074285792</v>
       </c>
-      <c r="J81" t="n">
+      <c r="M81" t="n">
         <v>2555.167782971374</v>
       </c>
-      <c r="K81" t="n">
+      <c r="N81" t="n">
         <v>-156.6297989077623</v>
       </c>
-      <c r="L81" t="n">
+      <c r="O81" t="n">
         <v>-25.69503225053354</v>
       </c>
-      <c r="M81" t="n">
+      <c r="P81" t="n">
         <v>-6.459096664909214</v>
       </c>
-      <c r="N81" t="n">
-        <v>40</v>
-      </c>
-      <c r="O81" t="n">
+      <c r="Q81" t="n">
+        <v>40</v>
+      </c>
+      <c r="R81" t="n">
         <v>500</v>
       </c>
-      <c r="P81" t="n">
+      <c r="S81" t="n">
         <v>120</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="T81" t="n">
         <v>80</v>
       </c>
-      <c r="R81" t="n">
+      <c r="U81" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5010,54 +5745,63 @@
         <v>698.8145863304383</v>
       </c>
       <c r="B82" t="n">
+        <v>20184026.73276128</v>
+      </c>
+      <c r="C82" t="n">
         <v>481.8917236328125</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>-2.295773983001709</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
+        <v>117.2273181522766</v>
+      </c>
+      <c r="F82" t="n">
+        <v>37.51118850708008</v>
+      </c>
+      <c r="G82" t="n">
         <v>139.8739814453056</v>
       </c>
-      <c r="E82" t="n">
+      <c r="H82" t="n">
         <v>956.9120374445134</v>
       </c>
-      <c r="F82" t="n">
+      <c r="I82" t="n">
         <v>29</v>
       </c>
-      <c r="G82" t="n">
+      <c r="J82" t="n">
         <v>28</v>
       </c>
-      <c r="H82" t="n">
+      <c r="K82" t="n">
         <v>73605.87790885335</v>
       </c>
-      <c r="I82" t="n">
+      <c r="L82" t="n">
         <v>-285.0125664165607</v>
       </c>
-      <c r="J82" t="n">
+      <c r="M82" t="n">
         <v>2380.099521217123</v>
       </c>
-      <c r="K82" t="n">
+      <c r="N82" t="n">
         <v>-155.8940491512565</v>
       </c>
-      <c r="L82" t="n">
+      <c r="O82" t="n">
         <v>-25.43983245190778</v>
       </c>
-      <c r="M82" t="n">
+      <c r="P82" t="n">
         <v>-5.197594714533988</v>
       </c>
-      <c r="N82" t="n">
-        <v>40</v>
-      </c>
-      <c r="O82" t="n">
+      <c r="Q82" t="n">
+        <v>40</v>
+      </c>
+      <c r="R82" t="n">
         <v>500</v>
       </c>
-      <c r="P82" t="n">
+      <c r="S82" t="n">
         <v>120</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="T82" t="n">
         <v>81</v>
       </c>
-      <c r="R82" t="n">
+      <c r="U82" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5066,54 +5810,63 @@
         <v>709.8772224331369</v>
       </c>
       <c r="B83" t="n">
+        <v>20672192.44855015</v>
+      </c>
+      <c r="C83" t="n">
         <v>491.5597229003906</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>-2.186153173446655</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
+        <v>118.6726286439748</v>
+      </c>
+      <c r="F83" t="n">
+        <v>38.32195472717285</v>
+      </c>
+      <c r="G83" t="n">
         <v>141.5250366674261</v>
       </c>
-      <c r="E83" t="n">
+      <c r="H83" t="n">
         <v>975.2385906955145</v>
       </c>
-      <c r="F83" t="n">
+      <c r="I83" t="n">
         <v>28</v>
       </c>
-      <c r="G83" t="n">
+      <c r="J83" t="n">
         <v>28</v>
       </c>
-      <c r="H83" t="n">
+      <c r="K83" t="n">
         <v>74938.34731511983</v>
       </c>
-      <c r="I83" t="n">
+      <c r="L83" t="n">
         <v>-298.9125760420793</v>
       </c>
-      <c r="J83" t="n">
+      <c r="M83" t="n">
         <v>2458.659240106158</v>
       </c>
-      <c r="K83" t="n">
+      <c r="N83" t="n">
         <v>-156.6553377120287</v>
       </c>
-      <c r="L83" t="n">
+      <c r="O83" t="n">
         <v>-25.75511339309778</v>
       </c>
-      <c r="M83" t="n">
+      <c r="P83" t="n">
         <v>-4.592073726330116</v>
       </c>
-      <c r="N83" t="n">
-        <v>40</v>
-      </c>
-      <c r="O83" t="n">
+      <c r="Q83" t="n">
+        <v>40</v>
+      </c>
+      <c r="R83" t="n">
         <v>500</v>
       </c>
-      <c r="P83" t="n">
+      <c r="S83" t="n">
         <v>120</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="T83" t="n">
         <v>82</v>
       </c>
-      <c r="R83" t="n">
+      <c r="U83" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5122,54 +5875,63 @@
         <v>711.8264638334367</v>
       </c>
       <c r="B84" t="n">
+        <v>20654180.87870158</v>
+      </c>
+      <c r="C84" t="n">
         <v>490.1908569335938</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>-2.22957444190979</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
+        <v>119.0865340397859</v>
+      </c>
+      <c r="F84" t="n">
+        <v>39.21671867370605</v>
+      </c>
+      <c r="G84" t="n">
         <v>141.071627696435</v>
       </c>
-      <c r="E84" t="n">
+      <c r="H84" t="n">
         <v>971.6639042986684</v>
       </c>
-      <c r="F84" t="n">
+      <c r="I84" t="n">
         <v>27</v>
       </c>
-      <c r="G84" t="n">
+      <c r="J84" t="n">
         <v>26</v>
       </c>
-      <c r="H84" t="n">
+      <c r="K84" t="n">
         <v>79419.40214499501</v>
       </c>
-      <c r="I84" t="n">
+      <c r="L84" t="n">
         <v>-300.5047950195767</v>
       </c>
-      <c r="J84" t="n">
+      <c r="M84" t="n">
         <v>2529.699181751546</v>
       </c>
-      <c r="K84" t="n">
+      <c r="N84" t="n">
         <v>-157.2944471089038</v>
       </c>
-      <c r="L84" t="n">
+      <c r="O84" t="n">
         <v>-26.3431220810001</v>
       </c>
-      <c r="M84" t="n">
+      <c r="P84" t="n">
         <v>-5.460758835809554</v>
       </c>
-      <c r="N84" t="n">
-        <v>40</v>
-      </c>
-      <c r="O84" t="n">
+      <c r="Q84" t="n">
+        <v>40</v>
+      </c>
+      <c r="R84" t="n">
         <v>500</v>
       </c>
-      <c r="P84" t="n">
+      <c r="S84" t="n">
         <v>120</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="T84" t="n">
         <v>83</v>
       </c>
-      <c r="R84" t="n">
+      <c r="U84" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5178,54 +5940,63 @@
         <v>711.9854104150533</v>
       </c>
       <c r="B85" t="n">
+        <v>20702867.92202836</v>
+      </c>
+      <c r="C85" t="n">
         <v>490.7318420410156</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>-2.271572113037109</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
+        <v>119.1360033360331</v>
+      </c>
+      <c r="F85" t="n">
+        <v>39.18255043029785</v>
+      </c>
+      <c r="G85" t="n">
         <v>141.314405123123</v>
       </c>
-      <c r="E85" t="n">
+      <c r="H85" t="n">
         <v>973.7192858829419</v>
       </c>
-      <c r="F85" t="n">
+      <c r="I85" t="n">
         <v>32</v>
       </c>
-      <c r="G85" t="n">
+      <c r="J85" t="n">
         <v>31</v>
       </c>
-      <c r="H85" t="n">
+      <c r="K85" t="n">
         <v>70362.92548094798</v>
       </c>
-      <c r="I85" t="n">
+      <c r="L85" t="n">
         <v>-296.0117047049825</v>
       </c>
-      <c r="J85" t="n">
+      <c r="M85" t="n">
         <v>1972.586690996807</v>
       </c>
-      <c r="K85" t="n">
+      <c r="N85" t="n">
         <v>-156.3925516852166</v>
       </c>
-      <c r="L85" t="n">
+      <c r="O85" t="n">
         <v>-25.49298952083896</v>
       </c>
-      <c r="M85" t="n">
+      <c r="P85" t="n">
         <v>-4.05395112515086</v>
       </c>
-      <c r="N85" t="n">
-        <v>40</v>
-      </c>
-      <c r="O85" t="n">
+      <c r="Q85" t="n">
+        <v>40</v>
+      </c>
+      <c r="R85" t="n">
         <v>500</v>
       </c>
-      <c r="P85" t="n">
+      <c r="S85" t="n">
         <v>120</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="T85" t="n">
         <v>84</v>
       </c>
-      <c r="R85" t="n">
+      <c r="U85" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5234,54 +6005,63 @@
         <v>712.4523303308026</v>
       </c>
       <c r="B86" t="n">
+        <v>20711554.92964752</v>
+      </c>
+      <c r="C86" t="n">
         <v>489.7246398925781</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>-2.263030290603638</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
+        <v>119.5826339794954</v>
+      </c>
+      <c r="F86" t="n">
+        <v>39.47760009765625</v>
+      </c>
+      <c r="G86" t="n">
         <v>141.1877074707728</v>
       </c>
-      <c r="E86" t="n">
+      <c r="H86" t="n">
         <v>971.2492779145197</v>
       </c>
-      <c r="F86" t="n">
+      <c r="I86" t="n">
         <v>29</v>
       </c>
-      <c r="G86" t="n">
+      <c r="J86" t="n">
         <v>28</v>
       </c>
-      <c r="H86" t="n">
+      <c r="K86" t="n">
         <v>74138.02034605289</v>
       </c>
-      <c r="I86" t="n">
+      <c r="L86" t="n">
         <v>-301.2835992066539</v>
       </c>
-      <c r="J86" t="n">
+      <c r="M86" t="n">
         <v>2411.242598291242</v>
       </c>
-      <c r="K86" t="n">
+      <c r="N86" t="n">
         <v>-155.4011872971031</v>
       </c>
-      <c r="L86" t="n">
+      <c r="O86" t="n">
         <v>-25.29917086629243</v>
       </c>
-      <c r="M86" t="n">
+      <c r="P86" t="n">
         <v>-5.159544477839522</v>
       </c>
-      <c r="N86" t="n">
-        <v>40</v>
-      </c>
-      <c r="O86" t="n">
+      <c r="Q86" t="n">
+        <v>40</v>
+      </c>
+      <c r="R86" t="n">
         <v>500</v>
       </c>
-      <c r="P86" t="n">
+      <c r="S86" t="n">
         <v>120</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="T86" t="n">
         <v>85</v>
       </c>
-      <c r="R86" t="n">
+      <c r="U86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5290,54 +6070,63 @@
         <v>709.4935850062097</v>
       </c>
       <c r="B87" t="n">
+        <v>20713005.38316121</v>
+      </c>
+      <c r="C87" t="n">
         <v>488.0361938476562</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>-2.216761589050293</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
+        <v>119.1517511210642</v>
+      </c>
+      <c r="F87" t="n">
+        <v>38.97006988525391</v>
+      </c>
+      <c r="G87" t="n">
         <v>141.1609987128282</v>
       </c>
-      <c r="E87" t="n">
+      <c r="H87" t="n">
         <v>968.0256347410204</v>
       </c>
-      <c r="F87" t="n">
+      <c r="I87" t="n">
         <v>27</v>
       </c>
-      <c r="G87" t="n">
+      <c r="J87" t="n">
         <v>26</v>
       </c>
-      <c r="H87" t="n">
+      <c r="K87" t="n">
         <v>74580.52541366493</v>
       </c>
-      <c r="I87" t="n">
+      <c r="L87" t="n">
         <v>-355.5440149889328</v>
       </c>
-      <c r="J87" t="n">
+      <c r="M87" t="n">
         <v>2466.873475017582</v>
       </c>
-      <c r="K87" t="n">
+      <c r="N87" t="n">
         <v>-159.4833497791007</v>
       </c>
-      <c r="L87" t="n">
+      <c r="O87" t="n">
         <v>-25.39984265662988</v>
       </c>
-      <c r="M87" t="n">
+      <c r="P87" t="n">
         <v>-5.181126072863044</v>
       </c>
-      <c r="N87" t="n">
-        <v>40</v>
-      </c>
-      <c r="O87" t="n">
+      <c r="Q87" t="n">
+        <v>40</v>
+      </c>
+      <c r="R87" t="n">
         <v>500</v>
       </c>
-      <c r="P87" t="n">
+      <c r="S87" t="n">
         <v>120</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="T87" t="n">
         <v>86</v>
       </c>
-      <c r="R87" t="n">
+      <c r="U87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5346,54 +6135,63 @@
         <v>702.690526605112</v>
       </c>
       <c r="B88" t="n">
+        <v>20810835.37868842</v>
+      </c>
+      <c r="C88" t="n">
         <v>520.4796752929688</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>-4.051131248474121</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
+        <v>118.807210087384</v>
+      </c>
+      <c r="F88" t="n">
+        <v>38.40986633300781</v>
+      </c>
+      <c r="G88" t="n">
         <v>141.8209945444209</v>
       </c>
-      <c r="E88" t="n">
+      <c r="H88" t="n">
         <v>1036.081057327848</v>
       </c>
-      <c r="F88" t="n">
+      <c r="I88" t="n">
         <v>33</v>
       </c>
-      <c r="G88" t="n">
+      <c r="J88" t="n">
         <v>33</v>
       </c>
-      <c r="H88" t="n">
+      <c r="K88" t="n">
         <v>93282.38170223069</v>
       </c>
-      <c r="I88" t="n">
+      <c r="L88" t="n">
         <v>-605.8380724015933</v>
       </c>
-      <c r="J88" t="n">
+      <c r="M88" t="n">
         <v>3195.351461737346</v>
       </c>
-      <c r="K88" t="n">
+      <c r="N88" t="n">
         <v>-154.166432853222</v>
       </c>
-      <c r="L88" t="n">
+      <c r="O88" t="n">
         <v>-24.242645501301</v>
       </c>
-      <c r="M88" t="n">
+      <c r="P88" t="n">
         <v>-4.975637235073712</v>
       </c>
-      <c r="N88" t="n">
-        <v>40</v>
-      </c>
-      <c r="O88" t="n">
+      <c r="Q88" t="n">
+        <v>40</v>
+      </c>
+      <c r="R88" t="n">
         <v>500</v>
       </c>
-      <c r="P88" t="n">
+      <c r="S88" t="n">
         <v>120</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="T88" t="n">
         <v>87</v>
       </c>
-      <c r="R88" t="n">
+      <c r="U88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5402,54 +6200,63 @@
         <v>735.8830871925754</v>
       </c>
       <c r="B89" t="n">
+        <v>22809489.2625949</v>
+      </c>
+      <c r="C89" t="n">
         <v>531.90234375</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>-2.483695507049561</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
+        <v>123.1458435120046</v>
+      </c>
+      <c r="F89" t="n">
+        <v>39.01491546630859</v>
+      </c>
+      <c r="G89" t="n">
         <v>150.1224046253651</v>
       </c>
-      <c r="E89" t="n">
+      <c r="H89" t="n">
         <v>1055.082970155858</v>
       </c>
-      <c r="F89" t="n">
+      <c r="I89" t="n">
         <v>30</v>
       </c>
-      <c r="G89" t="n">
+      <c r="J89" t="n">
         <v>29</v>
       </c>
-      <c r="H89" t="n">
+      <c r="K89" t="n">
         <v>85386.4425965197</v>
       </c>
-      <c r="I89" t="n">
+      <c r="L89" t="n">
         <v>-372.2350181553229</v>
       </c>
-      <c r="J89" t="n">
+      <c r="M89" t="n">
         <v>2844.980596633579</v>
       </c>
-      <c r="K89" t="n">
+      <c r="N89" t="n">
         <v>-158.1291233130058</v>
       </c>
-      <c r="L89" t="n">
+      <c r="O89" t="n">
         <v>-21.28059828776054</v>
       </c>
-      <c r="M89" t="n">
+      <c r="P89" t="n">
         <v>-4.465131370770582</v>
       </c>
-      <c r="N89" t="n">
-        <v>40</v>
-      </c>
-      <c r="O89" t="n">
+      <c r="Q89" t="n">
+        <v>40</v>
+      </c>
+      <c r="R89" t="n">
         <v>500</v>
       </c>
-      <c r="P89" t="n">
+      <c r="S89" t="n">
         <v>120</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="T89" t="n">
         <v>88</v>
       </c>
-      <c r="R89" t="n">
+      <c r="U89" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5458,54 +6265,63 @@
         <v>704.6148697397721</v>
       </c>
       <c r="B90" t="n">
+        <v>21301070.94889218</v>
+      </c>
+      <c r="C90" t="n">
         <v>539.9317016601562</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>-2.919331789016724</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
+        <v>118.4507143617678</v>
+      </c>
+      <c r="F90" t="n">
+        <v>36.58510398864747</v>
+      </c>
+      <c r="G90" t="n">
         <v>145.3262204871109</v>
       </c>
-      <c r="E90" t="n">
+      <c r="H90" t="n">
         <v>1072.81717780319</v>
       </c>
-      <c r="F90" t="n">
+      <c r="I90" t="n">
         <v>33</v>
       </c>
-      <c r="G90" t="n">
+      <c r="J90" t="n">
         <v>33</v>
       </c>
-      <c r="H90" t="n">
+      <c r="K90" t="n">
         <v>85794.68321671301</v>
       </c>
-      <c r="I90" t="n">
+      <c r="L90" t="n">
         <v>-435.6551634071147</v>
       </c>
-      <c r="J90" t="n">
+      <c r="M90" t="n">
         <v>2924.642355932788</v>
       </c>
-      <c r="K90" t="n">
+      <c r="N90" t="n">
         <v>-157.6374174003268</v>
       </c>
-      <c r="L90" t="n">
+      <c r="O90" t="n">
         <v>-22.3470068493543</v>
       </c>
-      <c r="M90" t="n">
+      <c r="P90" t="n">
         <v>-4.914534641264781</v>
       </c>
-      <c r="N90" t="n">
-        <v>40</v>
-      </c>
-      <c r="O90" t="n">
+      <c r="Q90" t="n">
+        <v>40</v>
+      </c>
+      <c r="R90" t="n">
         <v>500</v>
       </c>
-      <c r="P90" t="n">
+      <c r="S90" t="n">
         <v>120</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="T90" t="n">
         <v>89</v>
       </c>
-      <c r="R90" t="n">
+      <c r="U90" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5514,54 +6330,63 @@
         <v>1185.053343451395</v>
       </c>
       <c r="B91" t="n">
+        <v>47001567.93234401</v>
+      </c>
+      <c r="C91" t="n">
         <v>727.0615844726562</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>-2.324958801269531</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
+        <v>198.359707977779</v>
+      </c>
+      <c r="F91" t="n">
+        <v>101.360710144043</v>
+      </c>
+      <c r="G91" t="n">
         <v>194.8297632960881</v>
       </c>
-      <c r="E91" t="n">
+      <c r="H91" t="n">
         <v>1409.944101296375</v>
       </c>
-      <c r="F91" t="n">
+      <c r="I91" t="n">
         <v>15</v>
       </c>
-      <c r="G91" t="n">
+      <c r="J91" t="n">
         <v>14</v>
       </c>
-      <c r="H91" t="n">
+      <c r="K91" t="n">
         <v>138508.2171463036</v>
       </c>
-      <c r="I91" t="n">
+      <c r="L91" t="n">
         <v>-572.997354543957</v>
       </c>
-      <c r="J91" t="n">
+      <c r="M91" t="n">
         <v>4651.628440246881</v>
       </c>
-      <c r="K91" t="n">
+      <c r="N91" t="n">
         <v>-177.7115804006769</v>
       </c>
-      <c r="L91" t="n">
+      <c r="O91" t="n">
         <v>-36.24121535458306</v>
       </c>
-      <c r="M91" t="n">
+      <c r="P91" t="n">
         <v>-9.399267553028887</v>
       </c>
-      <c r="N91" t="n">
-        <v>40</v>
-      </c>
-      <c r="O91" t="n">
+      <c r="Q91" t="n">
+        <v>40</v>
+      </c>
+      <c r="R91" t="n">
         <v>500</v>
       </c>
-      <c r="P91" t="n">
+      <c r="S91" t="n">
         <v>120</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="T91" t="n">
         <v>90</v>
       </c>
-      <c r="R91" t="n">
+      <c r="U91" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5570,54 +6395,63 @@
         <v>930.6677026586465</v>
       </c>
       <c r="B92" t="n">
+        <v>37402839.54521061</v>
+      </c>
+      <c r="C92" t="n">
         <v>738.5995483398438</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>-2.456646203994751</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
+        <v>156.2162267976875</v>
+      </c>
+      <c r="F92" t="n">
+        <v>54.73910140991211</v>
+      </c>
+      <c r="G92" t="n">
         <v>192.9136231908553</v>
       </c>
-      <c r="E92" t="n">
+      <c r="H92" t="n">
         <v>1463.039320068415</v>
       </c>
-      <c r="F92" t="n">
+      <c r="I92" t="n">
         <v>28</v>
       </c>
-      <c r="G92" t="n">
+      <c r="J92" t="n">
         <v>28</v>
       </c>
-      <c r="H92" t="n">
+      <c r="K92" t="n">
         <v>96130.98167394336</v>
       </c>
-      <c r="I92" t="n">
+      <c r="L92" t="n">
         <v>-682.0085270184718</v>
       </c>
-      <c r="J92" t="n">
+      <c r="M92" t="n">
         <v>3314.841079447944</v>
       </c>
-      <c r="K92" t="n">
+      <c r="N92" t="n">
         <v>-185.7658957730819</v>
       </c>
-      <c r="L92" t="n">
+      <c r="O92" t="n">
         <v>-30.14381696798226</v>
       </c>
-      <c r="M92" t="n">
+      <c r="P92" t="n">
         <v>-8.295944512754657</v>
       </c>
-      <c r="N92" t="n">
-        <v>40</v>
-      </c>
-      <c r="O92" t="n">
+      <c r="Q92" t="n">
+        <v>40</v>
+      </c>
+      <c r="R92" t="n">
         <v>500</v>
       </c>
-      <c r="P92" t="n">
+      <c r="S92" t="n">
         <v>120</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="T92" t="n">
         <v>91</v>
       </c>
-      <c r="R92" t="n">
+      <c r="U92" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5626,54 +6460,63 @@
         <v>885.6482933449315</v>
       </c>
       <c r="B93" t="n">
+        <v>33366657.27457167</v>
+      </c>
+      <c r="C93" t="n">
         <v>657.662353515625</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>-3.355679750442505</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
+        <v>150.2592635159794</v>
+      </c>
+      <c r="F93" t="n">
+        <v>53.49305534362793</v>
+      </c>
+      <c r="G93" t="n">
         <v>179.7262480691762</v>
       </c>
-      <c r="E93" t="n">
+      <c r="H93" t="n">
         <v>1301.381797030589</v>
       </c>
-      <c r="F93" t="n">
+      <c r="I93" t="n">
         <v>27</v>
       </c>
-      <c r="G93" t="n">
+      <c r="J93" t="n">
         <v>26</v>
       </c>
-      <c r="H93" t="n">
+      <c r="K93" t="n">
         <v>98976.15165195036</v>
       </c>
-      <c r="I93" t="n">
+      <c r="L93" t="n">
         <v>-539.6295086906321</v>
       </c>
-      <c r="J93" t="n">
+      <c r="M93" t="n">
         <v>3304.896476052734</v>
       </c>
-      <c r="K93" t="n">
+      <c r="N93" t="n">
         <v>-169.0011432729182</v>
       </c>
-      <c r="L93" t="n">
+      <c r="O93" t="n">
         <v>-26.09192137773564</v>
       </c>
-      <c r="M93" t="n">
+      <c r="P93" t="n">
         <v>-4.783289453275192</v>
       </c>
-      <c r="N93" t="n">
-        <v>40</v>
-      </c>
-      <c r="O93" t="n">
+      <c r="Q93" t="n">
+        <v>40</v>
+      </c>
+      <c r="R93" t="n">
         <v>500</v>
       </c>
-      <c r="P93" t="n">
+      <c r="S93" t="n">
         <v>120</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="T93" t="n">
         <v>92</v>
       </c>
-      <c r="R93" t="n">
+      <c r="U93" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5682,54 +6525,63 @@
         <v>1167.167652530269</v>
       </c>
       <c r="B94" t="n">
+        <v>45721307.6349454</v>
+      </c>
+      <c r="C94" t="n">
         <v>718.5659790039062</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>-1.851595997810364</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
+        <v>194.8666605988276</v>
+      </c>
+      <c r="F94" t="n">
+        <v>98.55825805664062</v>
+      </c>
+      <c r="G94" t="n">
         <v>192.621451028943</v>
       </c>
-      <c r="E94" t="n">
+      <c r="H94" t="n">
         <v>1395.911239498608</v>
       </c>
-      <c r="F94" t="n">
+      <c r="I94" t="n">
         <v>15</v>
       </c>
-      <c r="G94" t="n">
+      <c r="J94" t="n">
         <v>14</v>
       </c>
-      <c r="H94" t="n">
+      <c r="K94" t="n">
         <v>138518.9280456915</v>
       </c>
-      <c r="I94" t="n">
+      <c r="L94" t="n">
         <v>-551.8465331330917</v>
       </c>
-      <c r="J94" t="n">
+      <c r="M94" t="n">
         <v>4563.364925215556</v>
       </c>
-      <c r="K94" t="n">
+      <c r="N94" t="n">
         <v>-174.1103705980934</v>
       </c>
-      <c r="L94" t="n">
+      <c r="O94" t="n">
         <v>-34.69343523814175</v>
       </c>
-      <c r="M94" t="n">
+      <c r="P94" t="n">
         <v>-8.906179614173505</v>
       </c>
-      <c r="N94" t="n">
-        <v>40</v>
-      </c>
-      <c r="O94" t="n">
+      <c r="Q94" t="n">
+        <v>40</v>
+      </c>
+      <c r="R94" t="n">
         <v>500</v>
       </c>
-      <c r="P94" t="n">
+      <c r="S94" t="n">
         <v>120</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="T94" t="n">
         <v>93</v>
       </c>
-      <c r="R94" t="n">
+      <c r="U94" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5738,54 +6590,63 @@
         <v>936.7122238003107</v>
       </c>
       <c r="B95" t="n">
+        <v>38778431.01498533</v>
+      </c>
+      <c r="C95" t="n">
         <v>756.7047729492188</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>-4.43409252166748</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
+        <v>158.2247794531179</v>
+      </c>
+      <c r="F95" t="n">
+        <v>50.91304969787598</v>
+      </c>
+      <c r="G95" t="n">
         <v>196.8380891402779</v>
       </c>
-      <c r="E95" t="n">
+      <c r="H95" t="n">
         <v>1501.689589268121</v>
       </c>
-      <c r="F95" t="n">
+      <c r="I95" t="n">
         <v>20</v>
       </c>
-      <c r="G95" t="n">
+      <c r="J95" t="n">
         <v>20</v>
       </c>
-      <c r="H95" t="n">
+      <c r="K95" t="n">
         <v>98445.43638535096</v>
       </c>
-      <c r="I95" t="n">
+      <c r="L95" t="n">
         <v>-721.5344965235417</v>
       </c>
-      <c r="J95" t="n">
+      <c r="M95" t="n">
         <v>3315.217173300126</v>
       </c>
-      <c r="K95" t="n">
+      <c r="N95" t="n">
         <v>-188.9479771205305</v>
       </c>
-      <c r="L95" t="n">
+      <c r="O95" t="n">
         <v>-28.57853582511142</v>
       </c>
-      <c r="M95" t="n">
+      <c r="P95" t="n">
         <v>-6.057955175159202</v>
       </c>
-      <c r="N95" t="n">
-        <v>40</v>
-      </c>
-      <c r="O95" t="n">
+      <c r="Q95" t="n">
+        <v>40</v>
+      </c>
+      <c r="R95" t="n">
         <v>500</v>
       </c>
-      <c r="P95" t="n">
+      <c r="S95" t="n">
         <v>120</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="T95" t="n">
         <v>94</v>
       </c>
-      <c r="R95" t="n">
+      <c r="U95" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5794,54 +6655,63 @@
         <v>979.7527806115877</v>
       </c>
       <c r="B96" t="n">
+        <v>37995209.93957107</v>
+      </c>
+      <c r="C96" t="n">
         <v>692.742431640625</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>-1.949115753173828</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
+        <v>163.6641043195023</v>
+      </c>
+      <c r="F96" t="n">
+        <v>64.01523590087891</v>
+      </c>
+      <c r="G96" t="n">
         <v>188.9607963796503</v>
       </c>
-      <c r="E96" t="n">
+      <c r="H96" t="n">
         <v>1364.596151643148</v>
       </c>
-      <c r="F96" t="n">
+      <c r="I96" t="n">
         <v>24</v>
       </c>
-      <c r="G96" t="n">
+      <c r="J96" t="n">
         <v>23</v>
       </c>
-      <c r="H96" t="n">
+      <c r="K96" t="n">
         <v>139632.3142851023</v>
       </c>
-      <c r="I96" t="n">
+      <c r="L96" t="n">
         <v>-546.6088581918921</v>
       </c>
-      <c r="J96" t="n">
+      <c r="M96" t="n">
         <v>4715.704121494161</v>
       </c>
-      <c r="K96" t="n">
+      <c r="N96" t="n">
         <v>-179.1213970307785</v>
       </c>
-      <c r="L96" t="n">
+      <c r="O96" t="n">
         <v>-29.07062029963038</v>
       </c>
-      <c r="M96" t="n">
+      <c r="P96" t="n">
         <v>-7.762626750780885</v>
       </c>
-      <c r="N96" t="n">
-        <v>40</v>
-      </c>
-      <c r="O96" t="n">
+      <c r="Q96" t="n">
+        <v>40</v>
+      </c>
+      <c r="R96" t="n">
         <v>500</v>
       </c>
-      <c r="P96" t="n">
+      <c r="S96" t="n">
         <v>120</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="T96" t="n">
         <v>95</v>
       </c>
-      <c r="R96" t="n">
+      <c r="U96" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5850,54 +6720,63 @@
         <v>1182.28456445537</v>
       </c>
       <c r="B97" t="n">
+        <v>46484577.23011433</v>
+      </c>
+      <c r="C97" t="n">
         <v>721.0808715820312</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>-1.830241203308105</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
+        <v>198.25999527927</v>
+      </c>
+      <c r="F97" t="n">
+        <v>102.2501373291015</v>
+      </c>
+      <c r="G97" t="n">
         <v>192.7378297893808</v>
       </c>
-      <c r="E97" t="n">
+      <c r="H97" t="n">
         <v>1398.102444335983</v>
       </c>
-      <c r="F97" t="n">
+      <c r="I97" t="n">
         <v>14</v>
       </c>
-      <c r="G97" t="n">
+      <c r="J97" t="n">
         <v>14</v>
       </c>
-      <c r="H97" t="n">
+      <c r="K97" t="n">
         <v>95146.61907016832</v>
       </c>
-      <c r="I97" t="n">
+      <c r="L97" t="n">
         <v>-557.539121799924</v>
       </c>
-      <c r="J97" t="n">
+      <c r="M97" t="n">
         <v>3121.752572758018</v>
       </c>
-      <c r="K97" t="n">
+      <c r="N97" t="n">
         <v>-173.8931092092114</v>
       </c>
-      <c r="L97" t="n">
+      <c r="O97" t="n">
         <v>-34.74323428867439</v>
       </c>
-      <c r="M97" t="n">
+      <c r="P97" t="n">
         <v>-9.289202149728006</v>
       </c>
-      <c r="N97" t="n">
-        <v>40</v>
-      </c>
-      <c r="O97" t="n">
+      <c r="Q97" t="n">
+        <v>40</v>
+      </c>
+      <c r="R97" t="n">
         <v>500</v>
       </c>
-      <c r="P97" t="n">
+      <c r="S97" t="n">
         <v>120</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="T97" t="n">
         <v>96</v>
       </c>
-      <c r="R97" t="n">
+      <c r="U97" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5906,54 +6785,63 @@
         <v>910.6479582446083</v>
       </c>
       <c r="B98" t="n">
+        <v>36851435.24953046</v>
+      </c>
+      <c r="C98" t="n">
         <v>737.0819702148438</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>-4.308099746704102</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
+        <v>153.3677232043119</v>
+      </c>
+      <c r="F98" t="n">
+        <v>47.63225364685059</v>
+      </c>
+      <c r="G98" t="n">
         <v>192.5857074615998</v>
       </c>
-      <c r="E98" t="n">
+      <c r="H98" t="n">
         <v>1463.276885020712</v>
       </c>
-      <c r="F98" t="n">
+      <c r="I98" t="n">
         <v>25</v>
       </c>
-      <c r="G98" t="n">
+      <c r="J98" t="n">
         <v>25</v>
       </c>
-      <c r="H98" t="n">
+      <c r="K98" t="n">
         <v>105209.4132458449</v>
       </c>
-      <c r="I98" t="n">
+      <c r="L98" t="n">
         <v>-687.9133424733554</v>
       </c>
-      <c r="J98" t="n">
+      <c r="M98" t="n">
         <v>3555.9654414775</v>
       </c>
-      <c r="K98" t="n">
+      <c r="N98" t="n">
         <v>-183.9738843024223</v>
       </c>
-      <c r="L98" t="n">
+      <c r="O98" t="n">
         <v>-27.63561462400305</v>
       </c>
-      <c r="M98" t="n">
+      <c r="P98" t="n">
         <v>-6.905546068394767</v>
       </c>
-      <c r="N98" t="n">
-        <v>40</v>
-      </c>
-      <c r="O98" t="n">
+      <c r="Q98" t="n">
+        <v>40</v>
+      </c>
+      <c r="R98" t="n">
         <v>500</v>
       </c>
-      <c r="P98" t="n">
+      <c r="S98" t="n">
         <v>120</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="T98" t="n">
         <v>97</v>
       </c>
-      <c r="R98" t="n">
+      <c r="U98" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5962,54 +6850,63 @@
         <v>754.3748749276081</v>
       </c>
       <c r="B99" t="n">
+        <v>23448856.78106815</v>
+      </c>
+      <c r="C99" t="n">
         <v>529.2258911132812</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>-2.031687498092651</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
+        <v>126.4062032712995</v>
+      </c>
+      <c r="F99" t="n">
+        <v>42.26154327392578</v>
+      </c>
+      <c r="G99" t="n">
         <v>150.5065042528832</v>
       </c>
-      <c r="E99" t="n">
+      <c r="H99" t="n">
         <v>1049.06625333596</v>
       </c>
-      <c r="F99" t="n">
+      <c r="I99" t="n">
         <v>30</v>
       </c>
-      <c r="G99" t="n">
+      <c r="J99" t="n">
         <v>30</v>
       </c>
-      <c r="H99" t="n">
+      <c r="K99" t="n">
         <v>84161.35541465254</v>
       </c>
-      <c r="I99" t="n">
+      <c r="L99" t="n">
         <v>-377.3185592737282</v>
       </c>
-      <c r="J99" t="n">
+      <c r="M99" t="n">
         <v>2949.749376943932</v>
       </c>
-      <c r="K99" t="n">
+      <c r="N99" t="n">
         <v>-159.4663650380596</v>
       </c>
-      <c r="L99" t="n">
+      <c r="O99" t="n">
         <v>-21.46570994574193</v>
       </c>
-      <c r="M99" t="n">
+      <c r="P99" t="n">
         <v>-5.36802790035145</v>
       </c>
-      <c r="N99" t="n">
-        <v>40</v>
-      </c>
-      <c r="O99" t="n">
+      <c r="Q99" t="n">
+        <v>40</v>
+      </c>
+      <c r="R99" t="n">
         <v>500</v>
       </c>
-      <c r="P99" t="n">
+      <c r="S99" t="n">
         <v>120</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="T99" t="n">
         <v>98</v>
       </c>
-      <c r="R99" t="n">
+      <c r="U99" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6018,54 +6915,63 @@
         <v>790.2909638014053</v>
       </c>
       <c r="B100" t="n">
+        <v>25646613.25202909</v>
+      </c>
+      <c r="C100" t="n">
         <v>549.6423950195312</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>-1.959081292152405</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
+        <v>132.5839619009614</v>
+      </c>
+      <c r="F100" t="n">
+        <v>45.32452201843262</v>
+      </c>
+      <c r="G100" t="n">
         <v>157.2979244201602</v>
       </c>
-      <c r="E100" t="n">
+      <c r="H100" t="n">
         <v>1091.201644978333</v>
       </c>
-      <c r="F100" t="n">
+      <c r="I100" t="n">
         <v>30</v>
       </c>
-      <c r="G100" t="n">
+      <c r="J100" t="n">
         <v>29</v>
       </c>
-      <c r="H100" t="n">
+      <c r="K100" t="n">
         <v>89364.2901083238</v>
       </c>
-      <c r="I100" t="n">
+      <c r="L100" t="n">
         <v>-391.3352304663058</v>
       </c>
-      <c r="J100" t="n">
+      <c r="M100" t="n">
         <v>3051.250270664094</v>
       </c>
-      <c r="K100" t="n">
+      <c r="N100" t="n">
         <v>-160.2787690802552</v>
       </c>
-      <c r="L100" t="n">
+      <c r="O100" t="n">
         <v>-21.59654340685675</v>
       </c>
-      <c r="M100" t="n">
+      <c r="P100" t="n">
         <v>-5.151633373817914</v>
       </c>
-      <c r="N100" t="n">
-        <v>40</v>
-      </c>
-      <c r="O100" t="n">
+      <c r="Q100" t="n">
+        <v>40</v>
+      </c>
+      <c r="R100" t="n">
         <v>500</v>
       </c>
-      <c r="P100" t="n">
+      <c r="S100" t="n">
         <v>120</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="T100" t="n">
         <v>99</v>
       </c>
-      <c r="R100" t="n">
+      <c r="U100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6074,54 +6980,63 @@
         <v>690.9424410566924</v>
       </c>
       <c r="B101" t="n">
+        <v>20028448.81044298</v>
+      </c>
+      <c r="C101" t="n">
         <v>486.3221130371094</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>-3.904495716094971</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
+        <v>116.1771179273007</v>
+      </c>
+      <c r="F101" t="n">
+        <v>36.92998504638672</v>
+      </c>
+      <c r="G101" t="n">
         <v>139.6376536680086</v>
       </c>
-      <c r="E101" t="n">
+      <c r="H101" t="n">
         <v>975.0376886352236</v>
       </c>
-      <c r="F101" t="n">
+      <c r="I101" t="n">
         <v>30</v>
       </c>
-      <c r="G101" t="n">
+      <c r="J101" t="n">
         <v>31</v>
       </c>
-      <c r="H101" t="n">
+      <c r="K101" t="n">
         <v>87944.22364382024</v>
       </c>
-      <c r="I101" t="n">
+      <c r="L101" t="n">
         <v>-329.9669116993718</v>
       </c>
-      <c r="J101" t="n">
+      <c r="M101" t="n">
         <v>3023.635230420244</v>
       </c>
-      <c r="K101" t="n">
+      <c r="N101" t="n">
         <v>-158.9704534957329</v>
       </c>
-      <c r="L101" t="n">
+      <c r="O101" t="n">
         <v>-21.77415563362858</v>
       </c>
-      <c r="M101" t="n">
+      <c r="P101" t="n">
         <v>-4.550458279256424</v>
       </c>
-      <c r="N101" t="n">
-        <v>40</v>
-      </c>
-      <c r="O101" t="n">
+      <c r="Q101" t="n">
+        <v>40</v>
+      </c>
+      <c r="R101" t="n">
         <v>500</v>
       </c>
-      <c r="P101" t="n">
+      <c r="S101" t="n">
         <v>120</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="T101" t="n">
         <v>100</v>
       </c>
-      <c r="R101" t="n">
+      <c r="U101" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6130,54 +7045,63 @@
         <v>753.8875741591463</v>
       </c>
       <c r="B102" t="n">
+        <v>23740542.1261697</v>
+      </c>
+      <c r="C102" t="n">
         <v>534.509033203125</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>-2.132766485214233</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
+        <v>126.5308652460729</v>
+      </c>
+      <c r="F102" t="n">
+        <v>41.40949249267578</v>
+      </c>
+      <c r="G102" t="n">
         <v>152.4155688828451</v>
       </c>
-      <c r="E102" t="n">
+      <c r="H102" t="n">
         <v>1063.33310647225</v>
       </c>
-      <c r="F102" t="n">
+      <c r="I102" t="n">
         <v>31</v>
       </c>
-      <c r="G102" t="n">
+      <c r="J102" t="n">
         <v>30</v>
       </c>
-      <c r="H102" t="n">
+      <c r="K102" t="n">
         <v>81011.55197626943</v>
       </c>
-      <c r="I102" t="n">
+      <c r="L102" t="n">
         <v>-378.6023776662842</v>
       </c>
-      <c r="J102" t="n">
+      <c r="M102" t="n">
         <v>2777.930656156242</v>
       </c>
-      <c r="K102" t="n">
+      <c r="N102" t="n">
         <v>-159.7654454944667</v>
       </c>
-      <c r="L102" t="n">
+      <c r="O102" t="n">
         <v>-20.88325419727533</v>
       </c>
-      <c r="M102" t="n">
+      <c r="P102" t="n">
         <v>-5.369130119705089</v>
       </c>
-      <c r="N102" t="n">
-        <v>40</v>
-      </c>
-      <c r="O102" t="n">
+      <c r="Q102" t="n">
+        <v>40</v>
+      </c>
+      <c r="R102" t="n">
         <v>500</v>
       </c>
-      <c r="P102" t="n">
+      <c r="S102" t="n">
         <v>120</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="T102" t="n">
         <v>101</v>
       </c>
-      <c r="R102" t="n">
+      <c r="U102" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6186,54 +7110,63 @@
         <v>1007.713873255885</v>
       </c>
       <c r="B103" t="n">
+        <v>32331449.57702134</v>
+      </c>
+      <c r="C103" t="n">
         <v>539.1038208007812</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>-1.880780696868896</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
+        <v>168.5886357741605</v>
+      </c>
+      <c r="F103" t="n">
+        <v>88.64326477050781</v>
+      </c>
+      <c r="G103" t="n">
         <v>157.6140982753677</v>
       </c>
-      <c r="E103" t="n">
+      <c r="H103" t="n">
         <v>1059.881281970588</v>
       </c>
-      <c r="F103" t="n">
+      <c r="I103" t="n">
         <v>19</v>
       </c>
-      <c r="G103" t="n">
+      <c r="J103" t="n">
         <v>18</v>
       </c>
-      <c r="H103" t="n">
+      <c r="K103" t="n">
         <v>83963.2751035432</v>
       </c>
-      <c r="I103" t="n">
+      <c r="L103" t="n">
         <v>-310.2940187454806</v>
       </c>
-      <c r="J103" t="n">
+      <c r="M103" t="n">
         <v>2944.558936447188</v>
       </c>
-      <c r="K103" t="n">
+      <c r="N103" t="n">
         <v>-164.2816871961957</v>
       </c>
-      <c r="L103" t="n">
+      <c r="O103" t="n">
         <v>-35.26434558185547</v>
       </c>
-      <c r="M103" t="n">
+      <c r="P103" t="n">
         <v>-7.204486955452665</v>
       </c>
-      <c r="N103" t="n">
-        <v>40</v>
-      </c>
-      <c r="O103" t="n">
+      <c r="Q103" t="n">
+        <v>40</v>
+      </c>
+      <c r="R103" t="n">
         <v>500</v>
       </c>
-      <c r="P103" t="n">
+      <c r="S103" t="n">
         <v>120</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="T103" t="n">
         <v>102</v>
       </c>
-      <c r="R103" t="n">
+      <c r="U103" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6242,54 +7175,63 @@
         <v>909.1136735976047</v>
       </c>
       <c r="B104" t="n">
+        <v>27242720.00224679</v>
+      </c>
+      <c r="C104" t="n">
         <v>491.3333435058594</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>-3.997032880783081</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
+        <v>152.2391336448337</v>
+      </c>
+      <c r="F104" t="n">
+        <v>75.75925445556641</v>
+      </c>
+      <c r="G104" t="n">
         <v>147.3233476431635</v>
       </c>
-      <c r="E104" t="n">
+      <c r="H104" t="n">
         <v>961.4053649874239</v>
       </c>
-      <c r="F104" t="n">
+      <c r="I104" t="n">
         <v>22</v>
       </c>
-      <c r="G104" t="n">
+      <c r="J104" t="n">
         <v>21</v>
       </c>
-      <c r="H104" t="n">
+      <c r="K104" t="n">
         <v>87366.21932092664</v>
       </c>
-      <c r="I104" t="n">
+      <c r="L104" t="n">
         <v>-225.8371023847212</v>
       </c>
-      <c r="J104" t="n">
+      <c r="M104" t="n">
         <v>3035.916726788444</v>
       </c>
-      <c r="K104" t="n">
+      <c r="N104" t="n">
         <v>-165.749723012883</v>
       </c>
-      <c r="L104" t="n">
+      <c r="O104" t="n">
         <v>-37.27672538963189</v>
       </c>
-      <c r="M104" t="n">
+      <c r="P104" t="n">
         <v>-7.579537207968778</v>
       </c>
-      <c r="N104" t="n">
-        <v>40</v>
-      </c>
-      <c r="O104" t="n">
+      <c r="Q104" t="n">
+        <v>40</v>
+      </c>
+      <c r="R104" t="n">
         <v>500</v>
       </c>
-      <c r="P104" t="n">
+      <c r="S104" t="n">
         <v>120</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="T104" t="n">
         <v>103</v>
       </c>
-      <c r="R104" t="n">
+      <c r="U104" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6298,54 +7240,63 @@
         <v>959.5625363896363</v>
       </c>
       <c r="B105" t="n">
+        <v>30157419.39653755</v>
+      </c>
+      <c r="C105" t="n">
         <v>530.1697387695312</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>-2.016739130020142</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
+        <v>160.3707415465223</v>
+      </c>
+      <c r="F105" t="n">
+        <v>80.53274536132812</v>
+      </c>
+      <c r="G105" t="n">
         <v>154.8029683913288</v>
       </c>
-      <c r="E105" t="n">
+      <c r="H105" t="n">
         <v>1029.952369923113</v>
       </c>
-      <c r="F105" t="n">
+      <c r="I105" t="n">
         <v>27</v>
       </c>
-      <c r="G105" t="n">
+      <c r="J105" t="n">
         <v>26</v>
       </c>
-      <c r="H105" t="n">
+      <c r="K105" t="n">
         <v>80757.88612775835</v>
       </c>
-      <c r="I105" t="n">
+      <c r="L105" t="n">
         <v>-248.8645812630966</v>
       </c>
-      <c r="J105" t="n">
+      <c r="M105" t="n">
         <v>2831.025644361674</v>
       </c>
-      <c r="K105" t="n">
+      <c r="N105" t="n">
         <v>-164.8560727021942</v>
       </c>
-      <c r="L105" t="n">
+      <c r="O105" t="n">
         <v>-35.07911560377968</v>
       </c>
-      <c r="M105" t="n">
+      <c r="P105" t="n">
         <v>-7.570628801502987</v>
       </c>
-      <c r="N105" t="n">
-        <v>40</v>
-      </c>
-      <c r="O105" t="n">
+      <c r="Q105" t="n">
+        <v>40</v>
+      </c>
+      <c r="R105" t="n">
         <v>500</v>
       </c>
-      <c r="P105" t="n">
+      <c r="S105" t="n">
         <v>120</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="T105" t="n">
         <v>104</v>
       </c>
-      <c r="R105" t="n">
+      <c r="U105" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6354,54 +7305,63 @@
         <v>1012.880726281099</v>
       </c>
       <c r="B106" t="n">
+        <v>32679989.53150884</v>
+      </c>
+      <c r="C106" t="n">
         <v>551.602783203125</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>-1.922778367996216</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
+        <v>169.273977818836</v>
+      </c>
+      <c r="F106" t="n">
+        <v>88.77709197998047</v>
+      </c>
+      <c r="G106" t="n">
         <v>158.6973642951467</v>
       </c>
-      <c r="E106" t="n">
+      <c r="H106" t="n">
         <v>1065.402972286195</v>
       </c>
-      <c r="F106" t="n">
+      <c r="I106" t="n">
         <v>14</v>
       </c>
-      <c r="G106" t="n">
+      <c r="J106" t="n">
         <v>14</v>
       </c>
-      <c r="H106" t="n">
+      <c r="K106" t="n">
         <v>77434.72268833625</v>
       </c>
-      <c r="I106" t="n">
+      <c r="L106" t="n">
         <v>-429.5486656331923</v>
       </c>
-      <c r="J106" t="n">
+      <c r="M106" t="n">
         <v>2658.216241026397</v>
       </c>
-      <c r="K106" t="n">
+      <c r="N106" t="n">
         <v>-165.1975831901213</v>
       </c>
-      <c r="L106" t="n">
+      <c r="O106" t="n">
         <v>-34.93657940831537</v>
       </c>
-      <c r="M106" t="n">
+      <c r="P106" t="n">
         <v>-8.572150523830212</v>
       </c>
-      <c r="N106" t="n">
-        <v>40</v>
-      </c>
-      <c r="O106" t="n">
+      <c r="Q106" t="n">
+        <v>40</v>
+      </c>
+      <c r="R106" t="n">
         <v>500</v>
       </c>
-      <c r="P106" t="n">
+      <c r="S106" t="n">
         <v>120</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="T106" t="n">
         <v>105</v>
       </c>
-      <c r="R106" t="n">
+      <c r="U106" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6410,54 +7370,63 @@
         <v>957.1472053119105</v>
       </c>
       <c r="B107" t="n">
+        <v>30013796.13973189</v>
+      </c>
+      <c r="C107" t="n">
         <v>539.3074340820312</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>-2.077955961227417</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
+        <v>160.0858709601719</v>
+      </c>
+      <c r="F107" t="n">
+        <v>81.62041473388672</v>
+      </c>
+      <c r="G107" t="n">
         <v>154.3328742043052</v>
       </c>
-      <c r="E107" t="n">
+      <c r="H107" t="n">
         <v>1042.3692698756</v>
       </c>
-      <c r="F107" t="n">
+      <c r="I107" t="n">
         <v>22</v>
       </c>
-      <c r="G107" t="n">
+      <c r="J107" t="n">
         <v>21</v>
       </c>
-      <c r="H107" t="n">
+      <c r="K107" t="n">
         <v>76106.65019495883</v>
       </c>
-      <c r="I107" t="n">
+      <c r="L107" t="n">
         <v>-270.3338082316259</v>
       </c>
-      <c r="J107" t="n">
+      <c r="M107" t="n">
         <v>2568.768467765746</v>
       </c>
-      <c r="K107" t="n">
+      <c r="N107" t="n">
         <v>-168.628942940107</v>
       </c>
-      <c r="L107" t="n">
+      <c r="O107" t="n">
         <v>-37.71903781299256</v>
       </c>
-      <c r="M107" t="n">
+      <c r="P107" t="n">
         <v>-7.997661641015765</v>
       </c>
-      <c r="N107" t="n">
-        <v>40</v>
-      </c>
-      <c r="O107" t="n">
+      <c r="Q107" t="n">
+        <v>40</v>
+      </c>
+      <c r="R107" t="n">
         <v>500</v>
       </c>
-      <c r="P107" t="n">
+      <c r="S107" t="n">
         <v>120</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="T107" t="n">
         <v>106</v>
       </c>
-      <c r="R107" t="n">
+      <c r="U107" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6466,54 +7435,63 @@
         <v>955.260747555729</v>
       </c>
       <c r="B108" t="n">
+        <v>29712973.58843827</v>
+      </c>
+      <c r="C108" t="n">
         <v>529.447265625</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>-2.104293584823608</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
+        <v>159.4520888840304</v>
+      </c>
+      <c r="F108" t="n">
+        <v>80.77619171142578</v>
+      </c>
+      <c r="G108" t="n">
         <v>153.3804565293302</v>
       </c>
-      <c r="E108" t="n">
+      <c r="H108" t="n">
         <v>1022.560737478339</v>
       </c>
-      <c r="F108" t="n">
+      <c r="I108" t="n">
         <v>19</v>
       </c>
-      <c r="G108" t="n">
+      <c r="J108" t="n">
         <v>18</v>
       </c>
-      <c r="H108" t="n">
+      <c r="K108" t="n">
         <v>75952.27490920157</v>
       </c>
-      <c r="I108" t="n">
+      <c r="L108" t="n">
         <v>-252.3471241548541</v>
       </c>
-      <c r="J108" t="n">
+      <c r="M108" t="n">
         <v>2666.452790091379</v>
       </c>
-      <c r="K108" t="n">
+      <c r="N108" t="n">
         <v>-165.5581565934723</v>
       </c>
-      <c r="L108" t="n">
+      <c r="O108" t="n">
         <v>-37.59646072306883</v>
       </c>
-      <c r="M108" t="n">
+      <c r="P108" t="n">
         <v>-8.830441171029811</v>
       </c>
-      <c r="N108" t="n">
-        <v>40</v>
-      </c>
-      <c r="O108" t="n">
+      <c r="Q108" t="n">
+        <v>40</v>
+      </c>
+      <c r="R108" t="n">
         <v>500</v>
       </c>
-      <c r="P108" t="n">
+      <c r="S108" t="n">
         <v>120</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="T108" t="n">
         <v>107</v>
       </c>
-      <c r="R108" t="n">
+      <c r="U108" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6522,54 +7500,63 @@
         <v>903.7747123072154</v>
       </c>
       <c r="B109" t="n">
+        <v>27925098.48103407</v>
+      </c>
+      <c r="C109" t="n">
         <v>567.0044555664062</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>-2.264453887939453</v>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
+        <v>151.0425163550124</v>
+      </c>
+      <c r="F109" t="n">
+        <v>71.16941833496094</v>
+      </c>
+      <c r="G109" t="n">
         <v>152.53582808282</v>
       </c>
-      <c r="E109" t="n">
+      <c r="H109" t="n">
         <v>1103.651396325803</v>
       </c>
-      <c r="F109" t="n">
+      <c r="I109" t="n">
         <v>25</v>
       </c>
-      <c r="G109" t="n">
+      <c r="J109" t="n">
         <v>24</v>
       </c>
-      <c r="H109" t="n">
+      <c r="K109" t="n">
         <v>86015.9362221442</v>
       </c>
-      <c r="I109" t="n">
+      <c r="L109" t="n">
         <v>-490.7628632424276</v>
       </c>
-      <c r="J109" t="n">
+      <c r="M109" t="n">
         <v>2875.945869138449</v>
       </c>
-      <c r="K109" t="n">
+      <c r="N109" t="n">
         <v>-160.6486755879268</v>
       </c>
-      <c r="L109" t="n">
+      <c r="O109" t="n">
         <v>-31.89462882815196</v>
       </c>
-      <c r="M109" t="n">
+      <c r="P109" t="n">
         <v>-6.807148765366311</v>
       </c>
-      <c r="N109" t="n">
-        <v>40</v>
-      </c>
-      <c r="O109" t="n">
+      <c r="Q109" t="n">
+        <v>40</v>
+      </c>
+      <c r="R109" t="n">
         <v>500</v>
       </c>
-      <c r="P109" t="n">
+      <c r="S109" t="n">
         <v>120</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="T109" t="n">
         <v>108</v>
       </c>
-      <c r="R109" t="n">
+      <c r="U109" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6578,54 +7565,63 @@
         <v>967.5641387588078</v>
       </c>
       <c r="B110" t="n">
+        <v>30290534.673537</v>
+      </c>
+      <c r="C110" t="n">
         <v>538.7158813476562</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>-2.132054567337036</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
+        <v>161.4853453415705</v>
+      </c>
+      <c r="F110" t="n">
+        <v>82.63761138916016</v>
+      </c>
+      <c r="G110" t="n">
         <v>154.3519267727456</v>
       </c>
-      <c r="E110" t="n">
+      <c r="H110" t="n">
         <v>1039.876166665591</v>
       </c>
-      <c r="F110" t="n">
+      <c r="I110" t="n">
         <v>26</v>
       </c>
-      <c r="G110" t="n">
+      <c r="J110" t="n">
         <v>25</v>
       </c>
-      <c r="H110" t="n">
+      <c r="K110" t="n">
         <v>86273.58210024089</v>
       </c>
-      <c r="I110" t="n">
+      <c r="L110" t="n">
         <v>-269.2017699219905</v>
       </c>
-      <c r="J110" t="n">
+      <c r="M110" t="n">
         <v>3069.240007827658</v>
       </c>
-      <c r="K110" t="n">
+      <c r="N110" t="n">
         <v>-167.566272147552</v>
       </c>
-      <c r="L110" t="n">
+      <c r="O110" t="n">
         <v>-36.53441176234661</v>
       </c>
-      <c r="M110" t="n">
+      <c r="P110" t="n">
         <v>-7.14476494590233</v>
       </c>
-      <c r="N110" t="n">
-        <v>40</v>
-      </c>
-      <c r="O110" t="n">
+      <c r="Q110" t="n">
+        <v>40</v>
+      </c>
+      <c r="R110" t="n">
         <v>500</v>
       </c>
-      <c r="P110" t="n">
+      <c r="S110" t="n">
         <v>120</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="T110" t="n">
         <v>109</v>
       </c>
-      <c r="R110" t="n">
+      <c r="U110" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6634,54 +7630,63 @@
         <v>975.3442719263046</v>
       </c>
       <c r="B111" t="n">
+        <v>30668047.67486975</v>
+      </c>
+      <c r="C111" t="n">
         <v>535.2905883789062</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>-1.917795538902283</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
+        <v>162.9053583797328</v>
+      </c>
+      <c r="F111" t="n">
+        <v>83.38075256347656</v>
+      </c>
+      <c r="G111" t="n">
         <v>154.8735313945122</v>
       </c>
-      <c r="E111" t="n">
+      <c r="H111" t="n">
         <v>1033.580200698271</v>
       </c>
-      <c r="F111" t="n">
+      <c r="I111" t="n">
         <v>24</v>
       </c>
-      <c r="G111" t="n">
+      <c r="J111" t="n">
         <v>24</v>
       </c>
-      <c r="H111" t="n">
+      <c r="K111" t="n">
         <v>77067.54952457863</v>
       </c>
-      <c r="I111" t="n">
+      <c r="L111" t="n">
         <v>-259.8596007973247</v>
       </c>
-      <c r="J111" t="n">
+      <c r="M111" t="n">
         <v>2588.849347086802</v>
       </c>
-      <c r="K111" t="n">
+      <c r="N111" t="n">
         <v>-165.1177944608264</v>
       </c>
-      <c r="L111" t="n">
+      <c r="O111" t="n">
         <v>-35.25330970233029</v>
       </c>
-      <c r="M111" t="n">
+      <c r="P111" t="n">
         <v>-7.948303538512545</v>
       </c>
-      <c r="N111" t="n">
-        <v>40</v>
-      </c>
-      <c r="O111" t="n">
+      <c r="Q111" t="n">
+        <v>40</v>
+      </c>
+      <c r="R111" t="n">
         <v>500</v>
       </c>
-      <c r="P111" t="n">
+      <c r="S111" t="n">
         <v>120</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="T111" t="n">
         <v>110</v>
       </c>
-      <c r="R111" t="n">
+      <c r="U111" t="n">
         <v>5</v>
       </c>
     </row>
